--- a/BackTest/2019-11-20 BackTest CTXC.xlsx
+++ b/BackTest/2019-11-20 BackTest CTXC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-9815.966300000007</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-9815.966300000007</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>188</v>
@@ -521,7 +521,7 @@
         <v>-9726.759900000008</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>188</v>
@@ -562,7 +562,7 @@
         <v>-9791.413500000008</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>189</v>
@@ -603,7 +603,7 @@
         <v>-4074.270200000008</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>187</v>
@@ -644,7 +644,7 @@
         <v>-4074.270200000008</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>190</v>
@@ -685,7 +685,7 @@
         <v>-4574.487000000008</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>190</v>
@@ -726,7 +726,7 @@
         <v>-5869.730700000008</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>189</v>
@@ -767,9 +767,11 @@
         <v>-5805.730700000008</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>186</v>
+      </c>
       <c r="J10" t="n">
         <v>188</v>
       </c>
@@ -806,9 +808,11 @@
         <v>-5805.730700000008</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>188</v>
+      </c>
       <c r="J11" t="n">
         <v>188</v>
       </c>
@@ -845,9 +849,11 @@
         <v>-8117.151100000008</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>188</v>
+      </c>
       <c r="J12" t="n">
         <v>188</v>
       </c>
@@ -884,9 +890,11 @@
         <v>-8117.151100000008</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>185</v>
+      </c>
       <c r="J13" t="n">
         <v>188</v>
       </c>
@@ -923,9 +931,11 @@
         <v>-8366.922700000008</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>185</v>
+      </c>
       <c r="J14" t="n">
         <v>188</v>
       </c>
@@ -962,9 +972,11 @@
         <v>-8366.922700000008</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>184</v>
+      </c>
       <c r="J15" t="n">
         <v>188</v>
       </c>
@@ -1001,7 +1013,7 @@
         <v>-15333.05980000001</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>184</v>
@@ -1042,7 +1054,7 @@
         <v>-15333.05980000001</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>183</v>
@@ -1083,7 +1095,7 @@
         <v>-15333.05980000001</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>183</v>
@@ -1124,7 +1136,7 @@
         <v>-14487.39000000001</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>183</v>
@@ -1165,7 +1177,7 @@
         <v>-14487.39000000001</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>184</v>
@@ -1206,7 +1218,7 @@
         <v>-14487.39000000001</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>184</v>
@@ -1247,7 +1259,7 @@
         <v>-14487.39000000001</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>184</v>
@@ -1288,7 +1300,7 @@
         <v>-14487.39000000001</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>184</v>
@@ -1329,7 +1341,7 @@
         <v>-13908.83860000001</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>184</v>
@@ -1370,7 +1382,7 @@
         <v>-13908.83860000001</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>185</v>
@@ -1411,7 +1423,7 @@
         <v>-15346.41460000001</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>185</v>
@@ -1452,7 +1464,7 @@
         <v>-15346.41460000001</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>184</v>
@@ -1493,7 +1505,7 @@
         <v>12189.04319999999</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>184</v>
@@ -1534,7 +1546,7 @@
         <v>12142.59409999999</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>191</v>
@@ -1575,7 +1587,7 @@
         <v>12142.59409999999</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>187</v>
@@ -1616,7 +1628,7 @@
         <v>12142.59409999999</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>187</v>
@@ -1657,9 +1669,11 @@
         <v>12142.59409999999</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>187</v>
+      </c>
       <c r="J32" t="n">
         <v>188</v>
       </c>
@@ -1696,7 +1710,7 @@
         <v>11592.99959999999</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>187</v>
@@ -1737,7 +1751,7 @@
         <v>33264.198</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>184</v>
@@ -1778,7 +1792,7 @@
         <v>33264.198</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>185</v>
@@ -1819,7 +1833,7 @@
         <v>33264.198</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>185</v>
@@ -1860,7 +1874,7 @@
         <v>42999.28875736842</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>185</v>
@@ -1901,7 +1915,7 @@
         <v>42999.28875736842</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>187</v>
@@ -1942,7 +1956,7 @@
         <v>42999.28875736842</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>187</v>
@@ -1983,7 +1997,7 @@
         <v>42999.28875736842</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>187</v>
@@ -2024,7 +2038,7 @@
         <v>42999.28875736842</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>187</v>
@@ -2065,7 +2079,7 @@
         <v>42999.28875736842</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>187</v>
@@ -2106,9 +2120,11 @@
         <v>42999.28875736842</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>187</v>
+      </c>
       <c r="J43" t="n">
         <v>188</v>
       </c>
@@ -2145,7 +2161,7 @@
         <v>44151.94625736842</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>187</v>
@@ -2186,7 +2202,7 @@
         <v>42861.90195736842</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>188</v>
@@ -2227,7 +2243,7 @@
         <v>46708.66395736842</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>187</v>
@@ -2268,9 +2284,11 @@
         <v>46708.66395736842</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>188</v>
+      </c>
       <c r="J47" t="n">
         <v>188</v>
       </c>
@@ -2307,9 +2325,11 @@
         <v>57690.55195736842</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>188</v>
+      </c>
       <c r="J48" t="n">
         <v>188</v>
       </c>
@@ -2346,9 +2366,11 @@
         <v>71738.31035736842</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>189</v>
+      </c>
       <c r="J49" t="n">
         <v>188</v>
       </c>
@@ -2385,9 +2407,11 @@
         <v>-10194.34594263158</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>191</v>
+      </c>
       <c r="J50" t="n">
         <v>188</v>
       </c>
@@ -2736,9 +2760,11 @@
         <v>-13889.87714263158</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>191</v>
+      </c>
       <c r="J59" t="n">
         <v>188</v>
       </c>
@@ -2814,9 +2840,11 @@
         <v>-13889.87714263158</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>191</v>
+      </c>
       <c r="J61" t="n">
         <v>188</v>
       </c>
@@ -2853,9 +2881,11 @@
         <v>-13889.87714263158</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>191</v>
+      </c>
       <c r="J62" t="n">
         <v>188</v>
       </c>
@@ -2892,9 +2922,11 @@
         <v>-15479.12754263158</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>191</v>
+      </c>
       <c r="J63" t="n">
         <v>188</v>
       </c>
@@ -2931,9 +2963,11 @@
         <v>-14683.28164263158</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>190</v>
+      </c>
       <c r="J64" t="n">
         <v>188</v>
       </c>
@@ -2970,9 +3004,11 @@
         <v>-14683.28164263158</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>191</v>
+      </c>
       <c r="J65" t="n">
         <v>188</v>
       </c>
@@ -3009,9 +3045,11 @@
         <v>-20119.65634263158</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>191</v>
+      </c>
       <c r="J66" t="n">
         <v>188</v>
       </c>
@@ -3048,9 +3086,11 @@
         <v>-20119.65634263158</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>190</v>
+      </c>
       <c r="J67" t="n">
         <v>188</v>
       </c>
@@ -3087,9 +3127,11 @@
         <v>-22119.65634263158</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>190</v>
+      </c>
       <c r="J68" t="n">
         <v>188</v>
       </c>
@@ -3126,9 +3168,11 @@
         <v>-18095.05164263158</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>189</v>
+      </c>
       <c r="J69" t="n">
         <v>188</v>
       </c>
@@ -3165,9 +3209,11 @@
         <v>15261.48635736842</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>191</v>
+      </c>
       <c r="J70" t="n">
         <v>188</v>
       </c>
@@ -3204,9 +3250,11 @@
         <v>15261.48635736842</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>193</v>
+      </c>
       <c r="J71" t="n">
         <v>188</v>
       </c>
@@ -3243,9 +3291,11 @@
         <v>15261.48635736842</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>193</v>
+      </c>
       <c r="J72" t="n">
         <v>188</v>
       </c>
@@ -3282,9 +3332,11 @@
         <v>15261.48635736842</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>193</v>
+      </c>
       <c r="J73" t="n">
         <v>188</v>
       </c>
@@ -3321,9 +3373,11 @@
         <v>15261.48635736842</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>193</v>
+      </c>
       <c r="J74" t="n">
         <v>188</v>
       </c>
@@ -3360,9 +3414,11 @@
         <v>15261.48635736842</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>193</v>
+      </c>
       <c r="J75" t="n">
         <v>188</v>
       </c>
@@ -3438,9 +3494,11 @@
         <v>23904.48635736842</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>190</v>
+      </c>
       <c r="J77" t="n">
         <v>188</v>
       </c>
@@ -3477,9 +3535,11 @@
         <v>23904.48635736842</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>191</v>
+      </c>
       <c r="J78" t="n">
         <v>188</v>
       </c>
@@ -3516,9 +3576,11 @@
         <v>23904.48635736842</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>191</v>
+      </c>
       <c r="J79" t="n">
         <v>188</v>
       </c>
@@ -3555,9 +3617,11 @@
         <v>23904.48635736842</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>191</v>
+      </c>
       <c r="J80" t="n">
         <v>188</v>
       </c>
@@ -3594,9 +3658,11 @@
         <v>27345.33695736842</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>191</v>
+      </c>
       <c r="J81" t="n">
         <v>188</v>
       </c>
@@ -3633,9 +3699,11 @@
         <v>26633.99545736842</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>192</v>
+      </c>
       <c r="J82" t="n">
         <v>188</v>
       </c>
@@ -3672,9 +3740,11 @@
         <v>26633.99545736842</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>191</v>
+      </c>
       <c r="J83" t="n">
         <v>188</v>
       </c>
@@ -3711,9 +3781,11 @@
         <v>47415.37535736842</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>191</v>
+      </c>
       <c r="J84" t="n">
         <v>188</v>
       </c>
@@ -3750,9 +3822,11 @@
         <v>47410.04685736842</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>192</v>
+      </c>
       <c r="J85" t="n">
         <v>188</v>
       </c>
@@ -3789,9 +3863,11 @@
         <v>43492.97555736842</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>191</v>
+      </c>
       <c r="J86" t="n">
         <v>188</v>
       </c>
@@ -3828,9 +3904,11 @@
         <v>46087.64705736841</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>190</v>
+      </c>
       <c r="J87" t="n">
         <v>188</v>
       </c>
@@ -3867,9 +3945,11 @@
         <v>52891.91455736841</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>191</v>
+      </c>
       <c r="J88" t="n">
         <v>188</v>
       </c>
@@ -3906,9 +3986,11 @@
         <v>37747.89965736841</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>192</v>
+      </c>
       <c r="J89" t="n">
         <v>188</v>
       </c>
@@ -3945,9 +4027,11 @@
         <v>37747.89965736841</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>191</v>
+      </c>
       <c r="J90" t="n">
         <v>188</v>
       </c>
@@ -3984,9 +4068,11 @@
         <v>37747.89965736841</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>191</v>
+      </c>
       <c r="J91" t="n">
         <v>188</v>
       </c>
@@ -4023,9 +4109,11 @@
         <v>37747.89965736841</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>191</v>
+      </c>
       <c r="J92" t="n">
         <v>188</v>
       </c>
@@ -4062,9 +4150,11 @@
         <v>32528.05865736841</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>191</v>
+      </c>
       <c r="J93" t="n">
         <v>188</v>
       </c>
@@ -4101,9 +4191,11 @@
         <v>32528.05865736841</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>190</v>
+      </c>
       <c r="J94" t="n">
         <v>188</v>
       </c>
@@ -4140,9 +4232,11 @@
         <v>33945.89805736841</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>190</v>
+      </c>
       <c r="J95" t="n">
         <v>188</v>
       </c>
@@ -4179,9 +4273,11 @@
         <v>33945.89805736841</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>191</v>
+      </c>
       <c r="J96" t="n">
         <v>188</v>
       </c>
@@ -4218,9 +4314,11 @@
         <v>33945.89805736841</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>191</v>
+      </c>
       <c r="J97" t="n">
         <v>188</v>
       </c>
@@ -4257,9 +4355,11 @@
         <v>33517.44975736841</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>191</v>
+      </c>
       <c r="J98" t="n">
         <v>188</v>
       </c>
@@ -4296,9 +4396,11 @@
         <v>33517.44975736841</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>190</v>
+      </c>
       <c r="J99" t="n">
         <v>188</v>
       </c>
@@ -4335,9 +4437,11 @@
         <v>33517.44975736841</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>190</v>
+      </c>
       <c r="J100" t="n">
         <v>188</v>
       </c>
@@ -4374,9 +4478,11 @@
         <v>34643.44975736841</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>190</v>
+      </c>
       <c r="J101" t="n">
         <v>188</v>
       </c>
@@ -4413,9 +4519,11 @@
         <v>42435.44475736841</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>191</v>
+      </c>
       <c r="J102" t="n">
         <v>188</v>
       </c>
@@ -4452,9 +4560,11 @@
         <v>42435.44475736841</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>192</v>
+      </c>
       <c r="J103" t="n">
         <v>188</v>
       </c>
@@ -4491,9 +4601,11 @@
         <v>55571.79815736841</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>192</v>
+      </c>
       <c r="J104" t="n">
         <v>188</v>
       </c>
@@ -10302,9 +10414,11 @@
         <v>284151.1009848114</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>193</v>
+      </c>
       <c r="J253" t="n">
         <v>188</v>
       </c>
@@ -19077,7 +19191,7 @@
         <v>1634261.191988593</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="n">
@@ -19085,13 +19199,15 @@
       </c>
       <c r="K478" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L478" t="n">
-        <v>1</v>
-      </c>
-      <c r="M478" t="inlineStr"/>
+        <v>1.112021276595745</v>
+      </c>
+      <c r="M478" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="479">
       <c r="A479" s="1" t="n">
@@ -19116,17 +19232,11 @@
         <v>1634261.191988593</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="n">
-        <v>188</v>
-      </c>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J479" t="inlineStr"/>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -19155,17 +19265,11 @@
         <v>1633165.849088593</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="n">
-        <v>188</v>
-      </c>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J480" t="inlineStr"/>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -19197,14 +19301,8 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="n">
-        <v>188</v>
-      </c>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J481" t="inlineStr"/>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -19236,14 +19334,8 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="n">
-        <v>188</v>
-      </c>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J482" t="inlineStr"/>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -19275,14 +19367,8 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="n">
-        <v>188</v>
-      </c>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J483" t="inlineStr"/>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -19311,17 +19397,11 @@
         <v>1618445.162388593</v>
       </c>
       <c r="H484" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="n">
-        <v>188</v>
-      </c>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J484" t="inlineStr"/>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -19350,17 +19430,11 @@
         <v>1618505.162388593</v>
       </c>
       <c r="H485" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="n">
-        <v>188</v>
-      </c>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J485" t="inlineStr"/>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -19392,14 +19466,8 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="n">
-        <v>188</v>
-      </c>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J486" t="inlineStr"/>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -19431,14 +19499,8 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="n">
-        <v>188</v>
-      </c>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J487" t="inlineStr"/>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -19470,14 +19532,8 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="n">
-        <v>188</v>
-      </c>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J488" t="inlineStr"/>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -19506,17 +19562,11 @@
         <v>1645316.047688593</v>
       </c>
       <c r="H489" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="n">
-        <v>188</v>
-      </c>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J489" t="inlineStr"/>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -19548,14 +19598,8 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="n">
-        <v>188</v>
-      </c>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J490" t="inlineStr"/>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -19587,14 +19631,8 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="n">
-        <v>188</v>
-      </c>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J491" t="inlineStr"/>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -19626,14 +19664,8 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="n">
-        <v>188</v>
-      </c>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J492" t="inlineStr"/>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -19665,14 +19697,8 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="n">
-        <v>188</v>
-      </c>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J493" t="inlineStr"/>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -19704,14 +19730,8 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="n">
-        <v>188</v>
-      </c>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J494" t="inlineStr"/>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -19743,14 +19763,8 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="n">
-        <v>188</v>
-      </c>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J495" t="inlineStr"/>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -19782,14 +19796,8 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="n">
-        <v>188</v>
-      </c>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J496" t="inlineStr"/>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -19821,14 +19829,8 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="n">
-        <v>188</v>
-      </c>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J497" t="inlineStr"/>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -19860,14 +19862,8 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="n">
-        <v>188</v>
-      </c>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J498" t="inlineStr"/>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -19899,14 +19895,8 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="n">
-        <v>188</v>
-      </c>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J499" t="inlineStr"/>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -19938,14 +19928,8 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="n">
-        <v>188</v>
-      </c>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J500" t="inlineStr"/>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -19977,14 +19961,8 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="n">
-        <v>188</v>
-      </c>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J501" t="inlineStr"/>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -20016,14 +19994,8 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="n">
-        <v>188</v>
-      </c>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J502" t="inlineStr"/>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -20055,14 +20027,8 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="n">
-        <v>188</v>
-      </c>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J503" t="inlineStr"/>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -20094,14 +20060,8 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="n">
-        <v>188</v>
-      </c>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J504" t="inlineStr"/>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -20133,14 +20093,8 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="n">
-        <v>188</v>
-      </c>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J505" t="inlineStr"/>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -20172,14 +20126,8 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="n">
-        <v>188</v>
-      </c>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J506" t="inlineStr"/>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -20211,14 +20159,8 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="n">
-        <v>188</v>
-      </c>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J507" t="inlineStr"/>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -20250,14 +20192,8 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="n">
-        <v>188</v>
-      </c>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J508" t="inlineStr"/>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -20289,14 +20225,8 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="n">
-        <v>188</v>
-      </c>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J509" t="inlineStr"/>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -20328,14 +20258,8 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="n">
-        <v>188</v>
-      </c>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J510" t="inlineStr"/>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -20367,14 +20291,8 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="n">
-        <v>188</v>
-      </c>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J511" t="inlineStr"/>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -20406,14 +20324,8 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="n">
-        <v>188</v>
-      </c>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J512" t="inlineStr"/>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -20445,14 +20357,8 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="n">
-        <v>188</v>
-      </c>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J513" t="inlineStr"/>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -20484,14 +20390,8 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="n">
-        <v>188</v>
-      </c>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J514" t="inlineStr"/>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -20523,14 +20423,8 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="n">
-        <v>188</v>
-      </c>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J515" t="inlineStr"/>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -20562,14 +20456,8 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="n">
-        <v>188</v>
-      </c>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J516" t="inlineStr"/>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -20601,14 +20489,8 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="n">
-        <v>188</v>
-      </c>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J517" t="inlineStr"/>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -20640,14 +20522,8 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="n">
-        <v>188</v>
-      </c>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J518" t="inlineStr"/>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -20679,14 +20555,8 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="n">
-        <v>188</v>
-      </c>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J519" t="inlineStr"/>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -20718,14 +20588,8 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="n">
-        <v>188</v>
-      </c>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J520" t="inlineStr"/>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -20757,14 +20621,8 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="n">
-        <v>188</v>
-      </c>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J521" t="inlineStr"/>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -20796,14 +20654,8 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="n">
-        <v>188</v>
-      </c>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J522" t="inlineStr"/>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -20835,14 +20687,8 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="n">
-        <v>188</v>
-      </c>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J523" t="inlineStr"/>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -20874,14 +20720,8 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="n">
-        <v>188</v>
-      </c>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J524" t="inlineStr"/>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -20913,14 +20753,8 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="n">
-        <v>188</v>
-      </c>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J525" t="inlineStr"/>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -20952,14 +20786,8 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="n">
-        <v>188</v>
-      </c>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J526" t="inlineStr"/>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -20991,14 +20819,8 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="n">
-        <v>188</v>
-      </c>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J527" t="inlineStr"/>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -21030,14 +20852,8 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="n">
-        <v>188</v>
-      </c>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J528" t="inlineStr"/>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -21069,14 +20885,8 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="n">
-        <v>188</v>
-      </c>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J529" t="inlineStr"/>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -21108,14 +20918,8 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="n">
-        <v>188</v>
-      </c>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J530" t="inlineStr"/>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -21147,14 +20951,8 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="n">
-        <v>188</v>
-      </c>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J531" t="inlineStr"/>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -21186,14 +20984,8 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="n">
-        <v>188</v>
-      </c>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J532" t="inlineStr"/>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -21225,14 +21017,8 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="n">
-        <v>188</v>
-      </c>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J533" t="inlineStr"/>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -21264,14 +21050,8 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="n">
-        <v>188</v>
-      </c>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J534" t="inlineStr"/>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -21303,14 +21083,8 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="n">
-        <v>188</v>
-      </c>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J535" t="inlineStr"/>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -21342,14 +21116,8 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="n">
-        <v>188</v>
-      </c>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J536" t="inlineStr"/>
+      <c r="K536" t="inlineStr"/>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -21381,14 +21149,8 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="n">
-        <v>188</v>
-      </c>
-      <c r="K537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J537" t="inlineStr"/>
+      <c r="K537" t="inlineStr"/>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -21420,14 +21182,8 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="n">
-        <v>188</v>
-      </c>
-      <c r="K538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J538" t="inlineStr"/>
+      <c r="K538" t="inlineStr"/>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -21459,14 +21215,8 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="n">
-        <v>188</v>
-      </c>
-      <c r="K539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J539" t="inlineStr"/>
+      <c r="K539" t="inlineStr"/>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -21498,14 +21248,8 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="n">
-        <v>188</v>
-      </c>
-      <c r="K540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J540" t="inlineStr"/>
+      <c r="K540" t="inlineStr"/>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -21537,14 +21281,8 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="n">
-        <v>188</v>
-      </c>
-      <c r="K541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J541" t="inlineStr"/>
+      <c r="K541" t="inlineStr"/>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -21576,14 +21314,8 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="n">
-        <v>188</v>
-      </c>
-      <c r="K542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J542" t="inlineStr"/>
+      <c r="K542" t="inlineStr"/>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -21615,14 +21347,8 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="n">
-        <v>188</v>
-      </c>
-      <c r="K543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J543" t="inlineStr"/>
+      <c r="K543" t="inlineStr"/>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -21654,14 +21380,8 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="n">
-        <v>188</v>
-      </c>
-      <c r="K544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J544" t="inlineStr"/>
+      <c r="K544" t="inlineStr"/>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -21693,14 +21413,8 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="n">
-        <v>188</v>
-      </c>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J545" t="inlineStr"/>
+      <c r="K545" t="inlineStr"/>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -21732,14 +21446,8 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="n">
-        <v>188</v>
-      </c>
-      <c r="K546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J546" t="inlineStr"/>
+      <c r="K546" t="inlineStr"/>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -21771,14 +21479,8 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="n">
-        <v>188</v>
-      </c>
-      <c r="K547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J547" t="inlineStr"/>
+      <c r="K547" t="inlineStr"/>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -21810,14 +21512,8 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="n">
-        <v>188</v>
-      </c>
-      <c r="K548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J548" t="inlineStr"/>
+      <c r="K548" t="inlineStr"/>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -21849,14 +21545,8 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="n">
-        <v>188</v>
-      </c>
-      <c r="K549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J549" t="inlineStr"/>
+      <c r="K549" t="inlineStr"/>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -21885,23 +21575,15 @@
         <v>1641538.641168079</v>
       </c>
       <c r="H550" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="n">
-        <v>188</v>
-      </c>
-      <c r="K550" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J550" t="inlineStr"/>
+      <c r="K550" t="inlineStr"/>
       <c r="L550" t="n">
-        <v>1.133297872340426</v>
-      </c>
-      <c r="M550" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M550" t="inlineStr"/>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
@@ -21926,7 +21608,7 @@
         <v>1642052.052968079</v>
       </c>
       <c r="H551" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -22223,7 +21905,7 @@
         <v>1610199.444968079</v>
       </c>
       <c r="H560" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -22256,7 +21938,7 @@
         <v>1625276.307568079</v>
       </c>
       <c r="H561" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -22289,7 +21971,7 @@
         <v>1645993.584368079</v>
       </c>
       <c r="H562" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -22322,7 +22004,7 @@
         <v>1631315.801668079</v>
       </c>
       <c r="H563" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -22355,7 +22037,7 @@
         <v>1629713.030468079</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -22388,7 +22070,7 @@
         <v>1647795.432464409</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -22421,7 +22103,7 @@
         <v>1688850.450769905</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -22454,7 +22136,7 @@
         <v>1717883.116468079</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -22487,7 +22169,7 @@
         <v>1867067.018668079</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -22520,7 +22202,7 @@
         <v>1892992.728268079</v>
       </c>
       <c r="H569" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -22553,7 +22235,7 @@
         <v>1868648.414168079</v>
       </c>
       <c r="H570" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -22586,7 +22268,7 @@
         <v>2057709.459216555</v>
       </c>
       <c r="H571" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -22619,7 +22301,7 @@
         <v>1940887.202549888</v>
       </c>
       <c r="H572" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -22652,7 +22334,7 @@
         <v>1970491.057649888</v>
       </c>
       <c r="H573" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -22685,7 +22367,7 @@
         <v>1938344.784549888</v>
       </c>
       <c r="H574" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -22718,7 +22400,7 @@
         <v>1933973.814649888</v>
       </c>
       <c r="H575" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -22751,7 +22433,7 @@
         <v>1933973.814649888</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -22784,7 +22466,7 @@
         <v>1933973.814649888</v>
       </c>
       <c r="H577" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -22817,7 +22499,7 @@
         <v>1933973.814649888</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -22850,7 +22532,7 @@
         <v>1973046.442649888</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -22883,7 +22565,7 @@
         <v>1973046.442649888</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -22916,7 +22598,7 @@
         <v>1940776.327349888</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -22949,7 +22631,7 @@
         <v>1857551.705549888</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -22982,7 +22664,7 @@
         <v>1839750.334349888</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -23015,7 +22697,7 @@
         <v>1839750.334349888</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -23048,7 +22730,7 @@
         <v>1823064.489649888</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -23081,7 +22763,7 @@
         <v>1834731.349249888</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -23114,7 +22796,7 @@
         <v>1834731.349249888</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -23147,7 +22829,7 @@
         <v>1823375.519649888</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -23180,7 +22862,7 @@
         <v>1792855.964049888</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -23213,7 +22895,7 @@
         <v>1792855.964049888</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -23246,7 +22928,7 @@
         <v>1808980.229949888</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -23279,7 +22961,7 @@
         <v>1816214.455749888</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -23312,7 +22994,7 @@
         <v>1816214.455749888</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -23345,7 +23027,7 @@
         <v>1809274.381049888</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -23378,7 +23060,7 @@
         <v>1804112.939049888</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -23411,7 +23093,7 @@
         <v>1862001.884449888</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -23444,7 +23126,7 @@
         <v>1862001.884449888</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -23477,7 +23159,7 @@
         <v>1862001.884449888</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -23510,7 +23192,7 @@
         <v>1862001.884449888</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -23543,7 +23225,7 @@
         <v>1879634.653549888</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -24071,7 +23753,7 @@
         <v>1871422.395407546</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -24104,7 +23786,7 @@
         <v>1879228.105707546</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -24137,7 +23819,7 @@
         <v>1879228.105707546</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -24170,7 +23852,7 @@
         <v>1989713.447707546</v>
       </c>
       <c r="H619" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -24203,7 +23885,7 @@
         <v>2106177.635553392</v>
       </c>
       <c r="H620" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -24236,7 +23918,7 @@
         <v>2092196.613953392</v>
       </c>
       <c r="H621" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -24269,7 +23951,7 @@
         <v>2148111.344653392</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -24302,7 +23984,7 @@
         <v>2148111.344653392</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -24335,7 +24017,7 @@
         <v>2116693.170310661</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -24368,7 +24050,7 @@
         <v>2113443.545610661</v>
       </c>
       <c r="H625" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -24401,7 +24083,7 @@
         <v>2035441.516610661</v>
       </c>
       <c r="H626" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -24434,7 +24116,7 @@
         <v>2057365.064410661</v>
       </c>
       <c r="H627" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -24467,7 +24149,7 @@
         <v>2057365.064410661</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -24500,7 +24182,7 @@
         <v>2057365.064410661</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -24533,7 +24215,7 @@
         <v>2057365.064410661</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -24566,7 +24248,7 @@
         <v>2057365.064410661</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -24599,7 +24281,7 @@
         <v>2057365.064410661</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -24632,7 +24314,7 @@
         <v>2032946.081010661</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -24665,7 +24347,7 @@
         <v>2032946.081010661</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -24698,7 +24380,7 @@
         <v>2037853.601210661</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -24764,7 +24446,7 @@
         <v>2023305.656510661</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -24830,7 +24512,7 @@
         <v>2015203.275910661</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -24863,7 +24545,7 @@
         <v>2033851.643410661</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -24896,7 +24578,7 @@
         <v>2033851.643410661</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -24995,7 +24677,7 @@
         <v>2030764.19341066</v>
       </c>
       <c r="H644" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -25127,7 +24809,7 @@
         <v>1982081.180410661</v>
       </c>
       <c r="H648" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -25292,7 +24974,7 @@
         <v>1860163.154010661</v>
       </c>
       <c r="H653" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -25325,7 +25007,7 @@
         <v>1860147.554010661</v>
       </c>
       <c r="H654" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -25358,7 +25040,7 @@
         <v>1872125.296610661</v>
       </c>
       <c r="H655" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -25391,7 +25073,7 @@
         <v>1872125.296610661</v>
       </c>
       <c r="H656" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -25424,7 +25106,7 @@
         <v>1869949.091310661</v>
       </c>
       <c r="H657" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -25490,7 +25172,7 @@
         <v>1861989.961410661</v>
       </c>
       <c r="H659" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -25523,7 +25205,7 @@
         <v>1868744.49901066</v>
       </c>
       <c r="H660" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -25556,7 +25238,7 @@
         <v>1867162.86311066</v>
       </c>
       <c r="H661" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -25721,7 +25403,7 @@
         <v>1899069.61771066</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -25754,7 +25436,7 @@
         <v>1899069.61771066</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -25787,7 +25469,7 @@
         <v>1892092.16591066</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -25820,7 +25502,7 @@
         <v>1896504.22641066</v>
       </c>
       <c r="H669" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -25853,7 +25535,7 @@
         <v>1896504.22641066</v>
       </c>
       <c r="H670" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -25886,7 +25568,7 @@
         <v>1896504.22641066</v>
       </c>
       <c r="H671" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -25919,7 +25601,7 @@
         <v>1896504.22641066</v>
       </c>
       <c r="H672" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -25952,7 +25634,7 @@
         <v>1923231.85411066</v>
       </c>
       <c r="H673" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -25985,7 +25667,7 @@
         <v>1934991.40051066</v>
       </c>
       <c r="H674" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -26018,7 +25700,7 @@
         <v>1934991.40051066</v>
       </c>
       <c r="H675" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -26051,7 +25733,7 @@
         <v>1934584.67831066</v>
       </c>
       <c r="H676" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -26480,7 +26162,7 @@
         <v>1863660.150134985</v>
       </c>
       <c r="H689" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -26513,7 +26195,7 @@
         <v>1855086.807434985</v>
       </c>
       <c r="H690" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -26546,7 +26228,7 @@
         <v>1829459.033734985</v>
       </c>
       <c r="H691" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -26579,7 +26261,7 @@
         <v>1829459.033734985</v>
       </c>
       <c r="H692" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -26612,7 +26294,7 @@
         <v>1829459.033734985</v>
       </c>
       <c r="H693" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -26645,7 +26327,7 @@
         <v>1822799.982134985</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -26678,7 +26360,7 @@
         <v>1823408.761934985</v>
       </c>
       <c r="H695" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -26711,7 +26393,7 @@
         <v>1823408.761934985</v>
       </c>
       <c r="H696" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -26744,7 +26426,7 @@
         <v>1823408.761934985</v>
       </c>
       <c r="H697" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -26777,7 +26459,7 @@
         <v>1823408.761934985</v>
       </c>
       <c r="H698" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -26810,7 +26492,7 @@
         <v>1812281.734434985</v>
       </c>
       <c r="H699" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -26843,7 +26525,7 @@
         <v>1788073.054534985</v>
       </c>
       <c r="H700" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -26876,7 +26558,7 @@
         <v>1788073.054534985</v>
       </c>
       <c r="H701" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -26909,7 +26591,7 @@
         <v>1788073.054534985</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -26942,7 +26624,7 @@
         <v>1788073.054534985</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -26975,7 +26657,7 @@
         <v>1794043.959534985</v>
       </c>
       <c r="H704" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -27008,7 +26690,7 @@
         <v>1776401.718334985</v>
       </c>
       <c r="H705" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -27041,7 +26723,7 @@
         <v>1761733.495934985</v>
       </c>
       <c r="H706" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -27074,7 +26756,7 @@
         <v>1761733.495934985</v>
       </c>
       <c r="H707" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -27107,7 +26789,7 @@
         <v>1750740.130234985</v>
       </c>
       <c r="H708" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -27140,7 +26822,7 @@
         <v>1756996.922634985</v>
       </c>
       <c r="H709" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -27173,7 +26855,7 @@
         <v>1756996.922634985</v>
       </c>
       <c r="H710" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -27206,7 +26888,7 @@
         <v>1753032.117034985</v>
       </c>
       <c r="H711" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -27239,7 +26921,7 @@
         <v>1759058.875434984</v>
       </c>
       <c r="H712" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -27272,7 +26954,7 @@
         <v>1759058.875434984</v>
       </c>
       <c r="H713" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -27305,7 +26987,7 @@
         <v>1759058.875434984</v>
       </c>
       <c r="H714" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -27338,7 +27020,7 @@
         <v>1781360.370134984</v>
       </c>
       <c r="H715" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -27371,7 +27053,7 @@
         <v>1801477.973834984</v>
       </c>
       <c r="H716" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -27404,7 +27086,7 @@
         <v>1801477.973834984</v>
       </c>
       <c r="H717" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -27437,7 +27119,7 @@
         <v>1792655.807434984</v>
       </c>
       <c r="H718" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -27470,7 +27152,7 @@
         <v>1802614.523034984</v>
       </c>
       <c r="H719" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -27767,7 +27449,7 @@
         <v>1744959.406434984</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -27800,7 +27482,7 @@
         <v>1739334.302234984</v>
       </c>
       <c r="H729" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -27811,6 +27493,6 @@
       <c r="M729" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-20 BackTest CTXC.xlsx
+++ b/BackTest/2019-11-20 BackTest CTXC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -521,11 +521,9 @@
         <v>-9726.759900000008</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>188</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
         <v>188</v>
       </c>
@@ -603,11 +601,9 @@
         <v>-4074.270200000008</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>187</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
         <v>188</v>
       </c>
@@ -644,11 +640,9 @@
         <v>-4074.270200000008</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>190</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
         <v>188</v>
       </c>
@@ -685,11 +679,9 @@
         <v>-4574.487000000008</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>190</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
         <v>188</v>
       </c>
@@ -726,11 +718,9 @@
         <v>-5869.730700000008</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>189</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
         <v>188</v>
       </c>
@@ -767,11 +757,9 @@
         <v>-5805.730700000008</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>186</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
         <v>188</v>
       </c>
@@ -808,11 +796,9 @@
         <v>-5805.730700000008</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>188</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
         <v>188</v>
       </c>
@@ -849,11 +835,9 @@
         <v>-8117.151100000008</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>188</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
         <v>188</v>
       </c>
@@ -890,11 +874,9 @@
         <v>-8117.151100000008</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>185</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
         <v>188</v>
       </c>
@@ -931,11 +913,9 @@
         <v>-8366.922700000008</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>185</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
         <v>188</v>
       </c>
@@ -1669,11 +1649,9 @@
         <v>12142.59409999999</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>187</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
         <v>188</v>
       </c>
@@ -1710,11 +1688,9 @@
         <v>11592.99959999999</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>187</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
         <v>188</v>
       </c>
@@ -1751,11 +1727,9 @@
         <v>33264.198</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>184</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
         <v>188</v>
       </c>
@@ -1915,11 +1889,9 @@
         <v>42999.28875736842</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>187</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
         <v>188</v>
       </c>
@@ -1956,11 +1928,9 @@
         <v>42999.28875736842</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>187</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
         <v>188</v>
       </c>
@@ -1997,11 +1967,9 @@
         <v>42999.28875736842</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>187</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
         <v>188</v>
       </c>
@@ -2038,11 +2006,9 @@
         <v>42999.28875736842</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>187</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
         <v>188</v>
       </c>
@@ -2079,11 +2045,9 @@
         <v>42999.28875736842</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>187</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
         <v>188</v>
       </c>
@@ -2120,11 +2084,9 @@
         <v>42999.28875736842</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>187</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
         <v>188</v>
       </c>
@@ -2161,11 +2123,9 @@
         <v>44151.94625736842</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>187</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
         <v>188</v>
       </c>
@@ -2202,11 +2162,9 @@
         <v>42861.90195736842</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>188</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
         <v>188</v>
       </c>
@@ -2243,11 +2201,9 @@
         <v>46708.66395736842</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>187</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
         <v>188</v>
       </c>
@@ -2407,11 +2363,9 @@
         <v>-10194.34594263158</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>191</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
         <v>188</v>
       </c>
@@ -2760,11 +2714,9 @@
         <v>-13889.87714263158</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>191</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
         <v>188</v>
       </c>
@@ -2840,11 +2792,9 @@
         <v>-13889.87714263158</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>191</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
         <v>188</v>
       </c>
@@ -2881,11 +2831,9 @@
         <v>-13889.87714263158</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>191</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
         <v>188</v>
       </c>
@@ -2922,11 +2870,9 @@
         <v>-15479.12754263158</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>191</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
         <v>188</v>
       </c>
@@ -2963,11 +2909,9 @@
         <v>-14683.28164263158</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>190</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
         <v>188</v>
       </c>
@@ -3004,11 +2948,9 @@
         <v>-14683.28164263158</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>191</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
         <v>188</v>
       </c>
@@ -3045,11 +2987,9 @@
         <v>-20119.65634263158</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>191</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
         <v>188</v>
       </c>
@@ -3086,11 +3026,9 @@
         <v>-20119.65634263158</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>190</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
         <v>188</v>
       </c>
@@ -3127,11 +3065,9 @@
         <v>-22119.65634263158</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>190</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
         <v>188</v>
       </c>
@@ -3168,11 +3104,9 @@
         <v>-18095.05164263158</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>189</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
         <v>188</v>
       </c>
@@ -3209,11 +3143,9 @@
         <v>15261.48635736842</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>191</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
         <v>188</v>
       </c>
@@ -3250,11 +3182,9 @@
         <v>15261.48635736842</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>193</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
         <v>188</v>
       </c>
@@ -3291,11 +3221,9 @@
         <v>15261.48635736842</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>193</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
         <v>188</v>
       </c>
@@ -3332,11 +3260,9 @@
         <v>15261.48635736842</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>193</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
         <v>188</v>
       </c>
@@ -3373,11 +3299,9 @@
         <v>15261.48635736842</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>193</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
         <v>188</v>
       </c>
@@ -3414,11 +3338,9 @@
         <v>15261.48635736842</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>193</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
         <v>188</v>
       </c>
@@ -3494,11 +3416,9 @@
         <v>23904.48635736842</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>190</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
         <v>188</v>
       </c>
@@ -3535,11 +3455,9 @@
         <v>23904.48635736842</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>191</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
         <v>188</v>
       </c>
@@ -3576,11 +3494,9 @@
         <v>23904.48635736842</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>191</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
         <v>188</v>
       </c>
@@ -3617,11 +3533,9 @@
         <v>23904.48635736842</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>191</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
         <v>188</v>
       </c>
@@ -3658,11 +3572,9 @@
         <v>27345.33695736842</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>191</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
         <v>188</v>
       </c>
@@ -3699,11 +3611,9 @@
         <v>26633.99545736842</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>192</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
         <v>188</v>
       </c>
@@ -3740,11 +3650,9 @@
         <v>26633.99545736842</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>191</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
         <v>188</v>
       </c>
@@ -3781,11 +3689,9 @@
         <v>47415.37535736842</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>191</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
         <v>188</v>
       </c>
@@ -3822,11 +3728,9 @@
         <v>47410.04685736842</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>192</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
         <v>188</v>
       </c>
@@ -3863,11 +3767,9 @@
         <v>43492.97555736842</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>191</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
         <v>188</v>
       </c>
@@ -3904,11 +3806,9 @@
         <v>46087.64705736841</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>190</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
         <v>188</v>
       </c>
@@ -3945,11 +3845,9 @@
         <v>52891.91455736841</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>191</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
         <v>188</v>
       </c>
@@ -3986,11 +3884,9 @@
         <v>37747.89965736841</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>192</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
         <v>188</v>
       </c>
@@ -4027,11 +3923,9 @@
         <v>37747.89965736841</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>191</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
         <v>188</v>
       </c>
@@ -4068,11 +3962,9 @@
         <v>37747.89965736841</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>191</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
         <v>188</v>
       </c>
@@ -4109,11 +4001,9 @@
         <v>37747.89965736841</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>191</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
         <v>188</v>
       </c>
@@ -4150,11 +4040,9 @@
         <v>32528.05865736841</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>191</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
         <v>188</v>
       </c>
@@ -4191,11 +4079,9 @@
         <v>32528.05865736841</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>190</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
         <v>188</v>
       </c>
@@ -4232,11 +4118,9 @@
         <v>33945.89805736841</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>190</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
         <v>188</v>
       </c>
@@ -4273,11 +4157,9 @@
         <v>33945.89805736841</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>191</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
         <v>188</v>
       </c>
@@ -4314,11 +4196,9 @@
         <v>33945.89805736841</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>191</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
         <v>188</v>
       </c>
@@ -5149,7 +5029,7 @@
         <v>288610.7496822081</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
@@ -5157,13 +5037,15 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>1.064148936170213</v>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5188,17 +5070,11 @@
         <v>343322.887982208</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>188</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5227,17 +5103,11 @@
         <v>309788.2388822081</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>188</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5266,17 +5136,11 @@
         <v>331969.2743822081</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>188</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5305,17 +5169,11 @@
         <v>375443.7981822081</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>188</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5344,17 +5202,11 @@
         <v>324310.7299822081</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>188</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5383,17 +5235,11 @@
         <v>334602.9186822081</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>188</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5422,17 +5268,11 @@
         <v>343419.0348822081</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>188</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5461,17 +5301,11 @@
         <v>467118.1247822081</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>188</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5500,17 +5334,11 @@
         <v>444930.2898822081</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>188</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5539,17 +5367,11 @@
         <v>436895.9103822081</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>188</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5578,17 +5400,11 @@
         <v>501338.7900822081</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>188</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5617,17 +5433,11 @@
         <v>521512.8676822081</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>188</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5656,17 +5466,11 @@
         <v>498539.7431822082</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>188</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5695,17 +5499,11 @@
         <v>545302.4242569654</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>188</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5734,17 +5532,11 @@
         <v>588765.2519182994</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>188</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5773,17 +5565,11 @@
         <v>540528.5260182994</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>188</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5812,17 +5598,11 @@
         <v>540528.5260182994</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>188</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5851,17 +5631,11 @@
         <v>481020.8324182994</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>188</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5890,17 +5664,11 @@
         <v>452051.1913182994</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>188</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5929,17 +5697,11 @@
         <v>456754.7283182994</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>188</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5968,17 +5730,11 @@
         <v>456754.7283182994</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>188</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -6007,17 +5763,11 @@
         <v>412494.9358182994</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>188</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -6046,17 +5796,11 @@
         <v>412494.9358182994</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>188</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -6085,17 +5829,11 @@
         <v>426851.3410182994</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>188</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -6124,17 +5862,11 @@
         <v>428083.4982182994</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>188</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -6163,17 +5895,11 @@
         <v>442872.4982182994</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>188</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6202,17 +5928,11 @@
         <v>442872.4982182994</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>188</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6241,17 +5961,11 @@
         <v>442872.4982182994</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>188</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6280,17 +5994,11 @@
         <v>442872.4982182994</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>188</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6319,17 +6027,11 @@
         <v>442872.4982182994</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>188</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6358,17 +6060,11 @@
         <v>429084.1428182994</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>188</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6397,17 +6093,11 @@
         <v>434156.8067182994</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>188</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6436,17 +6126,11 @@
         <v>422030.1585182994</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>188</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6475,17 +6159,11 @@
         <v>430065.3969182994</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>188</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6514,17 +6192,11 @@
         <v>427550.4847182994</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>188</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6553,17 +6225,11 @@
         <v>427550.4847182994</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>188</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6592,17 +6258,11 @@
         <v>427550.4847182994</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>188</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6631,17 +6291,11 @@
         <v>472461.3262182993</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>188</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6670,17 +6324,11 @@
         <v>462848.9425182993</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>188</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6709,17 +6357,11 @@
         <v>459848.9425182993</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>188</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6748,17 +6390,11 @@
         <v>459848.9425182993</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>188</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6787,17 +6423,11 @@
         <v>469490.9545182993</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>188</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6826,17 +6456,11 @@
         <v>472198.3171182993</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>188</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6865,17 +6489,11 @@
         <v>472198.3171182993</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>188</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6904,17 +6522,11 @@
         <v>472198.3171182993</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>188</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6943,17 +6555,11 @@
         <v>486154.3905182993</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>188</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6982,17 +6588,11 @@
         <v>486154.3905182993</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>188</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -7021,17 +6621,11 @@
         <v>486154.3905182993</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>188</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -7060,17 +6654,11 @@
         <v>486154.3905182993</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>188</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -7099,17 +6687,11 @@
         <v>535364.8098182993</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>188</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -7138,17 +6720,11 @@
         <v>547067.1042182993</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>188</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -7177,17 +6753,11 @@
         <v>526161.7955182992</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>188</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -7216,17 +6786,11 @@
         <v>475565.7933182992</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>188</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7255,17 +6819,11 @@
         <v>484474.5570182992</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>188</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7294,17 +6852,11 @@
         <v>445336.3354182992</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>188</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7333,17 +6885,11 @@
         <v>464522.6790182993</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>188</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7372,17 +6918,11 @@
         <v>451779.1226182993</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>188</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7411,17 +6951,11 @@
         <v>436555.0203182992</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>188</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7450,17 +6984,11 @@
         <v>437892.9513182992</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>188</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7492,14 +7020,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>188</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7531,14 +7053,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>188</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7570,14 +7086,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>188</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7609,14 +7119,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>188</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7648,14 +7152,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>188</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7687,14 +7185,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>188</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7726,14 +7218,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>188</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7765,14 +7251,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>188</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7801,17 +7281,11 @@
         <v>443686.4542182992</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>188</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7840,17 +7314,11 @@
         <v>443686.4542182992</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>188</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7879,17 +7347,11 @@
         <v>443686.4542182992</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>188</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7918,17 +7380,11 @@
         <v>443686.4542182992</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>188</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7957,17 +7413,11 @@
         <v>441940.4602182992</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>188</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7996,17 +7446,11 @@
         <v>430608.9659182992</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>188</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -8035,17 +7479,11 @@
         <v>410553.8512182992</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>188</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -8074,17 +7512,11 @@
         <v>410733.5963163385</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>188</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -8113,17 +7545,11 @@
         <v>410478.7215163385</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>188</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -8152,17 +7578,11 @@
         <v>410478.7215163385</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>188</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -8191,17 +7611,11 @@
         <v>410478.7215163385</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>188</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -8230,17 +7644,11 @@
         <v>411114.7432163385</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>188</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -8269,17 +7677,11 @@
         <v>411114.7432163385</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>188</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8308,17 +7710,11 @@
         <v>411114.7432163385</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>188</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8347,17 +7743,11 @@
         <v>411064.7432163385</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>188</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8386,17 +7776,11 @@
         <v>411064.7432163385</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>188</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8425,17 +7809,11 @@
         <v>415780.1550163385</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>188</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8464,17 +7842,11 @@
         <v>416251.1856163385</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>188</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8503,17 +7875,11 @@
         <v>407778.3025163385</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>188</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8542,17 +7908,11 @@
         <v>415530.7981163385</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>188</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8581,17 +7941,11 @@
         <v>415530.7981163385</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>188</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8620,17 +7974,11 @@
         <v>415530.7981163385</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>188</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8659,17 +8007,11 @@
         <v>415530.7981163385</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>188</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8698,17 +8040,11 @@
         <v>415530.7981163385</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>188</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8737,17 +8073,11 @@
         <v>415405.7981163385</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>188</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8776,17 +8106,11 @@
         <v>426797.5026163385</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>188</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8815,17 +8139,11 @@
         <v>426797.5026163385</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>188</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8854,17 +8172,11 @@
         <v>416797.5026163385</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>188</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8893,17 +8205,11 @@
         <v>449969.3689163385</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>188</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8932,17 +8238,11 @@
         <v>449969.3689163385</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>188</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8971,17 +8271,11 @@
         <v>449969.3689163385</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>188</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -9010,17 +8304,11 @@
         <v>449969.3689163385</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>188</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -9052,14 +8340,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>188</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -9088,17 +8370,11 @@
         <v>449969.3689163385</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>188</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -9127,17 +8403,11 @@
         <v>449969.3689163385</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>188</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -9166,17 +8436,11 @@
         <v>447856.4952163385</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>188</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -9205,17 +8469,11 @@
         <v>447856.4952163385</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>188</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -9244,17 +8502,11 @@
         <v>392617.1682163385</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>188</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -9283,17 +8535,11 @@
         <v>382617.1682163385</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>188</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -9325,14 +8571,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>188</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9364,14 +8604,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>188</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9400,17 +8634,11 @@
         <v>410792.7301163385</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>188</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9439,17 +8667,11 @@
         <v>415947.5678848114</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>188</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9478,17 +8700,11 @@
         <v>415947.5678848114</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>188</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9517,17 +8733,11 @@
         <v>299181.0783848114</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>188</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9556,17 +8766,11 @@
         <v>267261.3003848114</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>188</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9598,14 +8802,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>188</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9637,14 +8835,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>188</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9676,14 +8868,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>188</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9715,14 +8901,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>188</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9754,14 +8934,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>188</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9793,14 +8967,8 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>188</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9832,14 +9000,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>188</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9871,14 +9033,8 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>188</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9910,14 +9066,8 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>188</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9949,14 +9099,8 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>188</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9988,14 +9132,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>188</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -10027,14 +9165,8 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>188</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -10066,14 +9198,8 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>188</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -10102,17 +9228,11 @@
         <v>264618.5893848115</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>188</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -10144,14 +9264,8 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>188</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -10183,14 +9297,8 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>188</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -10222,14 +9330,8 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>188</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -10261,14 +9363,8 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>188</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -10300,14 +9396,8 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>188</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -10339,14 +9429,8 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>188</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -10378,14 +9462,8 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>188</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -10414,19 +9492,11 @@
         <v>284151.1009848114</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I253" t="n">
-        <v>193</v>
-      </c>
-      <c r="J253" t="n">
-        <v>188</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10458,14 +9528,8 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>188</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10497,14 +9561,8 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>188</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10536,14 +9594,8 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>188</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10575,14 +9627,8 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>188</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10614,14 +9660,8 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>188</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10653,14 +9693,8 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>188</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10692,14 +9726,8 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>188</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10731,14 +9759,8 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>188</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10770,14 +9792,8 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>188</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10809,14 +9825,8 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>188</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10848,14 +9858,8 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>188</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10887,14 +9891,8 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>188</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10926,14 +9924,8 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>188</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10965,14 +9957,8 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>188</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -11004,14 +9990,8 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>188</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -11043,14 +10023,8 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>188</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -11082,14 +10056,8 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>188</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -11121,14 +10089,8 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>188</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -11160,14 +10122,8 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>188</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -11199,14 +10155,8 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>188</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -11238,14 +10188,8 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>188</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -11277,14 +10221,8 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>188</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -11316,14 +10254,8 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>188</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -11355,14 +10287,8 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>188</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -11394,14 +10320,8 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>188</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -11433,14 +10353,8 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>188</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -11472,14 +10386,8 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>188</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -11511,14 +10419,8 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>188</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -11550,14 +10452,8 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>188</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -11589,14 +10485,8 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>188</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11628,14 +10518,8 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>188</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11667,14 +10551,8 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>188</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11706,14 +10584,8 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>188</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11745,14 +10617,8 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>188</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11784,14 +10650,8 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>188</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11823,14 +10683,8 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>188</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11862,14 +10716,8 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>188</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11901,14 +10749,8 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>188</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11940,14 +10782,8 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>188</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11979,14 +10815,8 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>188</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -12018,14 +10848,8 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>188</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -12057,14 +10881,8 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>188</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -12096,14 +10914,8 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>188</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -12135,14 +10947,8 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>188</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -12174,14 +10980,8 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>188</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -12213,14 +11013,8 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>188</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -12252,14 +11046,8 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>188</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -12291,14 +11079,8 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>188</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -12330,14 +11112,8 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>188</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -12369,14 +11145,8 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>188</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -12408,14 +11178,8 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>188</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -12447,14 +11211,8 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>188</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -12486,14 +11244,8 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>188</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -12525,14 +11277,8 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>188</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -12564,14 +11310,8 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>188</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -12603,14 +11343,8 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>188</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -12642,14 +11376,8 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>188</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -12681,14 +11409,8 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>188</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -12720,14 +11442,8 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>188</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12759,14 +11475,8 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>188</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12798,14 +11508,8 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>188</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12837,14 +11541,8 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>188</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12876,14 +11574,8 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>188</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12915,14 +11607,8 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>188</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12954,14 +11640,8 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>188</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12993,14 +11673,8 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>188</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -13032,14 +11706,8 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>188</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -13071,14 +11739,8 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>188</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -13110,14 +11772,8 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>188</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -13149,14 +11805,8 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>188</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -13188,14 +11838,8 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>188</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -13227,14 +11871,8 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>188</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -13266,14 +11904,8 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>188</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -13305,14 +11937,8 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>188</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -13344,14 +11970,8 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>188</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -13383,14 +12003,8 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>188</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -13422,14 +12036,8 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>188</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -13461,14 +12069,8 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>188</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -13500,14 +12102,8 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>188</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -13539,14 +12135,8 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>188</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -13578,14 +12168,8 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>188</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -13617,14 +12201,8 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>188</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -13656,14 +12234,8 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>188</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -13695,14 +12267,8 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>188</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -13734,14 +12300,8 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>188</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -13773,14 +12333,8 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>188</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -13812,14 +12366,8 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>188</v>
-      </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -13851,14 +12399,8 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>188</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13890,14 +12432,8 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>188</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13929,14 +12465,8 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>188</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13968,14 +12498,8 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>188</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -14007,14 +12531,8 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>188</v>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -14046,14 +12564,8 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>188</v>
-      </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -14085,14 +12597,8 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>188</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -14124,14 +12630,8 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>188</v>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -14163,14 +12663,8 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>188</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -14202,14 +12696,8 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>188</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -14241,14 +12729,8 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>188</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -14277,17 +12759,11 @@
         <v>319601.2589590691</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>188</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -14319,14 +12795,8 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>188</v>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -14355,17 +12825,11 @@
         <v>321279.0422590691</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>188</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -14394,17 +12858,11 @@
         <v>313879.2260590691</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>188</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -14433,17 +12891,11 @@
         <v>313879.2260590691</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>188</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -14472,17 +12924,11 @@
         <v>306301.3759590691</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>188</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -14511,17 +12957,11 @@
         <v>307604.2880590691</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>188</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -14550,17 +12990,11 @@
         <v>307604.2880590691</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>188</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -14589,17 +13023,11 @@
         <v>312580.5213590692</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>188</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -14628,17 +13056,11 @@
         <v>312580.5213590692</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>188</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -14667,17 +13089,11 @@
         <v>312580.5213590692</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>188</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -14706,17 +13122,11 @@
         <v>312580.5213590692</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>188</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -14745,17 +13155,11 @@
         <v>312575.4770590691</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>188</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -14784,17 +13188,11 @@
         <v>318286.9274590691</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>188</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -14823,17 +13221,11 @@
         <v>318101.9274590691</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>188</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -14862,17 +13254,11 @@
         <v>319287.7731590691</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>188</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -14901,17 +13287,11 @@
         <v>319287.7731590691</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>188</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -14940,17 +13320,11 @@
         <v>336353.3865590691</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>188</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -14979,17 +13353,11 @@
         <v>335553.3865590691</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>188</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -15018,17 +13386,11 @@
         <v>324158.1400590691</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>188</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -15057,17 +13419,11 @@
         <v>324158.1400590691</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>188</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -15096,17 +13452,11 @@
         <v>324158.1400590691</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>188</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -15135,17 +13485,11 @@
         <v>324651.9551590691</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>188</v>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -15174,17 +13518,11 @@
         <v>313419.0116590691</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>188</v>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -15213,17 +13551,11 @@
         <v>338935.4606590691</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>188</v>
-      </c>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -15252,17 +13584,11 @@
         <v>338935.4606590691</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>188</v>
-      </c>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -15291,17 +13617,11 @@
         <v>360322.6435590691</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>188</v>
-      </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -15330,17 +13650,11 @@
         <v>359314.9324590691</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>188</v>
-      </c>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -15369,17 +13683,11 @@
         <v>359314.9324590691</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>188</v>
-      </c>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -15408,17 +13716,11 @@
         <v>368826.9633590691</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>188</v>
-      </c>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -15447,17 +13749,11 @@
         <v>368514.3313590692</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>188</v>
-      </c>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -15486,17 +13782,11 @@
         <v>370070.7684590691</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>188</v>
-      </c>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -15525,17 +13815,11 @@
         <v>369070.1599590692</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>188</v>
-      </c>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -15564,17 +13848,11 @@
         <v>369070.1599590692</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>188</v>
-      </c>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -15603,17 +13881,11 @@
         <v>396449.4066590692</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>188</v>
-      </c>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -15642,17 +13914,11 @@
         <v>398416.8674590692</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>188</v>
-      </c>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -15681,17 +13947,11 @@
         <v>398211.7464590692</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>188</v>
-      </c>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -15720,17 +13980,11 @@
         <v>401740.1686590692</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>188</v>
-      </c>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -15759,17 +14013,11 @@
         <v>401740.1686590692</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>188</v>
-      </c>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -15798,17 +14046,11 @@
         <v>401740.1686590692</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>188</v>
-      </c>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -15837,17 +14079,11 @@
         <v>401740.1686590692</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>188</v>
-      </c>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -15876,17 +14112,11 @@
         <v>393599.8929590692</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>188</v>
-      </c>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -15915,17 +14145,11 @@
         <v>393624.8929590692</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>188</v>
-      </c>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -15954,17 +14178,11 @@
         <v>393624.8929590692</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>188</v>
-      </c>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -15993,17 +14211,11 @@
         <v>393140.9949590692</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>188</v>
-      </c>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -16032,17 +14244,11 @@
         <v>394240.0248708339</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>188</v>
-      </c>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -16071,17 +14277,11 @@
         <v>393754.0248708339</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>188</v>
-      </c>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -16110,17 +14310,11 @@
         <v>393754.0248708339</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>188</v>
-      </c>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -16149,17 +14343,11 @@
         <v>397348.6045708339</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>188</v>
-      </c>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -16188,17 +14376,11 @@
         <v>397348.6045708339</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>188</v>
-      </c>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -16227,17 +14409,11 @@
         <v>405441.9916708339</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>188</v>
-      </c>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -16266,17 +14442,11 @@
         <v>405441.9916708339</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>188</v>
-      </c>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -16305,17 +14475,11 @@
         <v>425304.9995590692</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>188</v>
-      </c>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J404" t="inlineStr"/>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -16344,17 +14508,11 @@
         <v>432410.2828590692</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>188</v>
-      </c>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -16383,17 +14541,11 @@
         <v>432410.2828590692</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>188</v>
-      </c>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J406" t="inlineStr"/>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -16422,17 +14574,11 @@
         <v>432410.2828590692</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>188</v>
-      </c>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J407" t="inlineStr"/>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -16461,17 +14607,11 @@
         <v>448772.4168590692</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>188</v>
-      </c>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J408" t="inlineStr"/>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -16500,17 +14640,11 @@
         <v>448772.4168590692</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>188</v>
-      </c>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J409" t="inlineStr"/>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -16539,17 +14673,11 @@
         <v>433809.3584209739</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>188</v>
-      </c>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -16578,17 +14706,11 @@
         <v>409450.4626209739</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>188</v>
-      </c>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -16620,14 +14742,8 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>188</v>
-      </c>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -16656,17 +14772,11 @@
         <v>424628.4760209739</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>188</v>
-      </c>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J413" t="inlineStr"/>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -16695,17 +14805,11 @@
         <v>424628.4760209739</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>188</v>
-      </c>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J414" t="inlineStr"/>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -16734,17 +14838,11 @@
         <v>738917.4793543073</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>188</v>
-      </c>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J415" t="inlineStr"/>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -16776,14 +14874,8 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>188</v>
-      </c>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -16815,14 +14907,8 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>188</v>
-      </c>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J417" t="inlineStr"/>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -16854,14 +14940,8 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>188</v>
-      </c>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J418" t="inlineStr"/>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -16893,14 +14973,8 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>188</v>
-      </c>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J419" t="inlineStr"/>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -16932,14 +15006,8 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>188</v>
-      </c>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J420" t="inlineStr"/>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -16971,14 +15039,8 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>188</v>
-      </c>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J421" t="inlineStr"/>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -17010,14 +15072,8 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>188</v>
-      </c>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -17049,14 +15105,8 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>188</v>
-      </c>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -17088,14 +15138,8 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>188</v>
-      </c>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -17127,14 +15171,8 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>188</v>
-      </c>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J425" t="inlineStr"/>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -17166,14 +15204,8 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>188</v>
-      </c>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -17205,14 +15237,8 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>188</v>
-      </c>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -17244,14 +15270,8 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>188</v>
-      </c>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J428" t="inlineStr"/>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -17283,14 +15303,8 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>188</v>
-      </c>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J429" t="inlineStr"/>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -17322,14 +15336,8 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>188</v>
-      </c>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J430" t="inlineStr"/>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -17361,14 +15369,8 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>188</v>
-      </c>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J431" t="inlineStr"/>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -17400,14 +15402,8 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>188</v>
-      </c>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J432" t="inlineStr"/>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -17439,14 +15435,8 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>188</v>
-      </c>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -17478,14 +15468,8 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>188</v>
-      </c>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -17517,14 +15501,8 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>188</v>
-      </c>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -17556,14 +15534,8 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>188</v>
-      </c>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -17595,14 +15567,8 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>188</v>
-      </c>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -17634,14 +15600,8 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>188</v>
-      </c>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J438" t="inlineStr"/>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -17673,14 +15633,8 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>188</v>
-      </c>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -17712,14 +15666,8 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>188</v>
-      </c>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J440" t="inlineStr"/>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -17751,14 +15699,8 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>188</v>
-      </c>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -17790,14 +15732,8 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>188</v>
-      </c>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J442" t="inlineStr"/>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -17829,14 +15765,8 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>188</v>
-      </c>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J443" t="inlineStr"/>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -17868,14 +15798,8 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>188</v>
-      </c>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J444" t="inlineStr"/>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -17907,14 +15831,8 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>188</v>
-      </c>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J445" t="inlineStr"/>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -17946,14 +15864,8 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>188</v>
-      </c>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J446" t="inlineStr"/>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -17982,17 +15894,11 @@
         <v>1625204.098588593</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>188</v>
-      </c>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J447" t="inlineStr"/>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -18021,17 +15927,11 @@
         <v>1625204.098588593</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>188</v>
-      </c>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J448" t="inlineStr"/>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -18060,17 +15960,11 @@
         <v>1641874.223288593</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>188</v>
-      </c>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J449" t="inlineStr"/>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -18099,17 +15993,11 @@
         <v>1641874.223288593</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>188</v>
-      </c>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J450" t="inlineStr"/>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -18138,17 +16026,11 @@
         <v>1661478.273488593</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>188</v>
-      </c>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J451" t="inlineStr"/>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -18180,14 +16062,8 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>188</v>
-      </c>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J452" t="inlineStr"/>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -18219,14 +16095,8 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>188</v>
-      </c>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J453" t="inlineStr"/>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -18255,17 +16125,11 @@
         <v>1652143.302988593</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>188</v>
-      </c>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J454" t="inlineStr"/>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -18294,17 +16158,11 @@
         <v>1675294.074788593</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>188</v>
-      </c>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J455" t="inlineStr"/>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -18333,17 +16191,11 @@
         <v>1636654.828988593</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>188</v>
-      </c>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J456" t="inlineStr"/>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -18372,17 +16224,11 @@
         <v>1648189.098988593</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>188</v>
-      </c>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J457" t="inlineStr"/>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -18414,14 +16260,8 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>188</v>
-      </c>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J458" t="inlineStr"/>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -18453,14 +16293,8 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>188</v>
-      </c>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -18492,14 +16326,8 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>188</v>
-      </c>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J460" t="inlineStr"/>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -18531,14 +16359,8 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>188</v>
-      </c>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J461" t="inlineStr"/>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -18570,14 +16392,8 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>188</v>
-      </c>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J462" t="inlineStr"/>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -18609,14 +16425,8 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>188</v>
-      </c>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J463" t="inlineStr"/>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -18648,14 +16458,8 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>188</v>
-      </c>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J464" t="inlineStr"/>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -18687,14 +16491,8 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>188</v>
-      </c>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J465" t="inlineStr"/>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -18726,14 +16524,8 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>188</v>
-      </c>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J466" t="inlineStr"/>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -18765,14 +16557,8 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>188</v>
-      </c>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J467" t="inlineStr"/>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -18804,14 +16590,8 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>188</v>
-      </c>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J468" t="inlineStr"/>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -18843,14 +16623,8 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>188</v>
-      </c>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J469" t="inlineStr"/>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -18882,14 +16656,8 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>188</v>
-      </c>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J470" t="inlineStr"/>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -18921,14 +16689,8 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>188</v>
-      </c>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J471" t="inlineStr"/>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -18960,14 +16722,8 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>188</v>
-      </c>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J472" t="inlineStr"/>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -18999,14 +16755,8 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="n">
-        <v>188</v>
-      </c>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J473" t="inlineStr"/>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -19038,14 +16788,8 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="n">
-        <v>188</v>
-      </c>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J474" t="inlineStr"/>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -19077,14 +16821,8 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="n">
-        <v>188</v>
-      </c>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J475" t="inlineStr"/>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -19116,14 +16854,8 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="n">
-        <v>188</v>
-      </c>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J476" t="inlineStr"/>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -19155,14 +16887,8 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="n">
-        <v>188</v>
-      </c>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J477" t="inlineStr"/>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -19191,23 +16917,15 @@
         <v>1634261.191988593</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="n">
-        <v>188</v>
-      </c>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J478" t="inlineStr"/>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
-        <v>1.112021276595745</v>
-      </c>
-      <c r="M478" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M478" t="inlineStr"/>
     </row>
     <row r="479">
       <c r="A479" s="1" t="n">
@@ -19232,7 +16950,7 @@
         <v>1634261.191988593</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -19265,7 +16983,7 @@
         <v>1633165.849088593</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -21905,7 +19623,7 @@
         <v>1610199.444968079</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -21938,7 +19656,7 @@
         <v>1625276.307568079</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -21971,7 +19689,7 @@
         <v>1645993.584368079</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -22004,7 +19722,7 @@
         <v>1631315.801668079</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -22037,7 +19755,7 @@
         <v>1629713.030468079</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -22070,7 +19788,7 @@
         <v>1647795.432464409</v>
       </c>
       <c r="H565" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -22103,7 +19821,7 @@
         <v>1688850.450769905</v>
       </c>
       <c r="H566" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -22136,7 +19854,7 @@
         <v>1717883.116468079</v>
       </c>
       <c r="H567" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -22169,7 +19887,7 @@
         <v>1867067.018668079</v>
       </c>
       <c r="H568" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -22202,7 +19920,7 @@
         <v>1892992.728268079</v>
       </c>
       <c r="H569" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -22235,7 +19953,7 @@
         <v>1868648.414168079</v>
       </c>
       <c r="H570" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -22268,7 +19986,7 @@
         <v>2057709.459216555</v>
       </c>
       <c r="H571" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -22301,7 +20019,7 @@
         <v>1940887.202549888</v>
       </c>
       <c r="H572" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -22334,7 +20052,7 @@
         <v>1970491.057649888</v>
       </c>
       <c r="H573" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -22367,7 +20085,7 @@
         <v>1938344.784549888</v>
       </c>
       <c r="H574" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -22400,7 +20118,7 @@
         <v>1933973.814649888</v>
       </c>
       <c r="H575" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -22433,7 +20151,7 @@
         <v>1933973.814649888</v>
       </c>
       <c r="H576" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -22466,7 +20184,7 @@
         <v>1933973.814649888</v>
       </c>
       <c r="H577" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -22499,7 +20217,7 @@
         <v>1933973.814649888</v>
       </c>
       <c r="H578" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -22532,7 +20250,7 @@
         <v>1973046.442649888</v>
       </c>
       <c r="H579" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -22565,7 +20283,7 @@
         <v>1973046.442649888</v>
       </c>
       <c r="H580" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -22598,7 +20316,7 @@
         <v>1940776.327349888</v>
       </c>
       <c r="H581" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -22631,7 +20349,7 @@
         <v>1857551.705549888</v>
       </c>
       <c r="H582" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -22664,7 +20382,7 @@
         <v>1839750.334349888</v>
       </c>
       <c r="H583" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -22697,7 +20415,7 @@
         <v>1839750.334349888</v>
       </c>
       <c r="H584" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -22730,7 +20448,7 @@
         <v>1823064.489649888</v>
       </c>
       <c r="H585" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -22763,7 +20481,7 @@
         <v>1834731.349249888</v>
       </c>
       <c r="H586" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -22796,7 +20514,7 @@
         <v>1834731.349249888</v>
       </c>
       <c r="H587" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -22829,7 +20547,7 @@
         <v>1823375.519649888</v>
       </c>
       <c r="H588" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -22862,7 +20580,7 @@
         <v>1792855.964049888</v>
       </c>
       <c r="H589" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -22895,7 +20613,7 @@
         <v>1792855.964049888</v>
       </c>
       <c r="H590" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -22928,7 +20646,7 @@
         <v>1808980.229949888</v>
       </c>
       <c r="H591" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -22961,7 +20679,7 @@
         <v>1816214.455749888</v>
       </c>
       <c r="H592" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -22994,7 +20712,7 @@
         <v>1816214.455749888</v>
       </c>
       <c r="H593" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -23027,7 +20745,7 @@
         <v>1809274.381049888</v>
       </c>
       <c r="H594" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -23060,7 +20778,7 @@
         <v>1804112.939049888</v>
       </c>
       <c r="H595" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -23093,7 +20811,7 @@
         <v>1862001.884449888</v>
       </c>
       <c r="H596" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -23126,7 +20844,7 @@
         <v>1862001.884449888</v>
       </c>
       <c r="H597" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -23159,7 +20877,7 @@
         <v>1862001.884449888</v>
       </c>
       <c r="H598" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -23192,7 +20910,7 @@
         <v>1862001.884449888</v>
       </c>
       <c r="H599" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -23225,7 +20943,7 @@
         <v>1879634.653549888</v>
       </c>
       <c r="H600" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -23753,7 +21471,7 @@
         <v>1871422.395407546</v>
       </c>
       <c r="H616" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -23786,7 +21504,7 @@
         <v>1879228.105707546</v>
       </c>
       <c r="H617" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -23819,7 +21537,7 @@
         <v>1879228.105707546</v>
       </c>
       <c r="H618" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -23852,7 +21570,7 @@
         <v>1989713.447707546</v>
       </c>
       <c r="H619" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -23885,7 +21603,7 @@
         <v>2106177.635553392</v>
       </c>
       <c r="H620" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -23918,7 +21636,7 @@
         <v>2092196.613953392</v>
       </c>
       <c r="H621" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -23951,7 +21669,7 @@
         <v>2148111.344653392</v>
       </c>
       <c r="H622" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -23984,7 +21702,7 @@
         <v>2148111.344653392</v>
       </c>
       <c r="H623" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -24017,7 +21735,7 @@
         <v>2116693.170310661</v>
       </c>
       <c r="H624" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -24050,7 +21768,7 @@
         <v>2113443.545610661</v>
       </c>
       <c r="H625" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -24083,7 +21801,7 @@
         <v>2035441.516610661</v>
       </c>
       <c r="H626" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -24116,7 +21834,7 @@
         <v>2057365.064410661</v>
       </c>
       <c r="H627" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -24149,7 +21867,7 @@
         <v>2057365.064410661</v>
       </c>
       <c r="H628" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -24182,7 +21900,7 @@
         <v>2057365.064410661</v>
       </c>
       <c r="H629" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -24215,7 +21933,7 @@
         <v>2057365.064410661</v>
       </c>
       <c r="H630" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -24248,7 +21966,7 @@
         <v>2057365.064410661</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -24281,7 +21999,7 @@
         <v>2057365.064410661</v>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -24314,7 +22032,7 @@
         <v>2032946.081010661</v>
       </c>
       <c r="H633" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -24347,7 +22065,7 @@
         <v>2032946.081010661</v>
       </c>
       <c r="H634" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -24380,7 +22098,7 @@
         <v>2037853.601210661</v>
       </c>
       <c r="H635" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -24446,7 +22164,7 @@
         <v>2023305.656510661</v>
       </c>
       <c r="H637" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -24512,7 +22230,7 @@
         <v>2015203.275910661</v>
       </c>
       <c r="H639" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -24545,7 +22263,7 @@
         <v>2033851.643410661</v>
       </c>
       <c r="H640" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -24578,7 +22296,7 @@
         <v>2033851.643410661</v>
       </c>
       <c r="H641" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -24677,7 +22395,7 @@
         <v>2030764.19341066</v>
       </c>
       <c r="H644" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -25403,7 +23121,7 @@
         <v>1899069.61771066</v>
       </c>
       <c r="H666" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -25436,7 +23154,7 @@
         <v>1899069.61771066</v>
       </c>
       <c r="H667" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -25469,7 +23187,7 @@
         <v>1892092.16591066</v>
       </c>
       <c r="H668" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -25502,7 +23220,7 @@
         <v>1896504.22641066</v>
       </c>
       <c r="H669" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -25535,7 +23253,7 @@
         <v>1896504.22641066</v>
       </c>
       <c r="H670" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -25568,7 +23286,7 @@
         <v>1896504.22641066</v>
       </c>
       <c r="H671" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -25601,7 +23319,7 @@
         <v>1896504.22641066</v>
       </c>
       <c r="H672" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -25634,7 +23352,7 @@
         <v>1923231.85411066</v>
       </c>
       <c r="H673" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -25667,7 +23385,7 @@
         <v>1934991.40051066</v>
       </c>
       <c r="H674" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -26162,7 +23880,7 @@
         <v>1863660.150134985</v>
       </c>
       <c r="H689" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -26195,7 +23913,7 @@
         <v>1855086.807434985</v>
       </c>
       <c r="H690" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -26228,7 +23946,7 @@
         <v>1829459.033734985</v>
       </c>
       <c r="H691" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -26261,7 +23979,7 @@
         <v>1829459.033734985</v>
       </c>
       <c r="H692" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -26294,7 +24012,7 @@
         <v>1829459.033734985</v>
       </c>
       <c r="H693" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -26327,7 +24045,7 @@
         <v>1822799.982134985</v>
       </c>
       <c r="H694" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -26360,7 +24078,7 @@
         <v>1823408.761934985</v>
       </c>
       <c r="H695" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -26393,7 +24111,7 @@
         <v>1823408.761934985</v>
       </c>
       <c r="H696" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -26426,7 +24144,7 @@
         <v>1823408.761934985</v>
       </c>
       <c r="H697" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -26459,7 +24177,7 @@
         <v>1823408.761934985</v>
       </c>
       <c r="H698" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -26492,7 +24210,7 @@
         <v>1812281.734434985</v>
       </c>
       <c r="H699" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -26525,7 +24243,7 @@
         <v>1788073.054534985</v>
       </c>
       <c r="H700" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -26558,7 +24276,7 @@
         <v>1788073.054534985</v>
       </c>
       <c r="H701" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -26591,7 +24309,7 @@
         <v>1788073.054534985</v>
       </c>
       <c r="H702" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -26624,7 +24342,7 @@
         <v>1788073.054534985</v>
       </c>
       <c r="H703" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -26657,7 +24375,7 @@
         <v>1794043.959534985</v>
       </c>
       <c r="H704" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -26690,7 +24408,7 @@
         <v>1776401.718334985</v>
       </c>
       <c r="H705" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -26723,7 +24441,7 @@
         <v>1761733.495934985</v>
       </c>
       <c r="H706" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -26756,7 +24474,7 @@
         <v>1761733.495934985</v>
       </c>
       <c r="H707" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -26789,7 +24507,7 @@
         <v>1750740.130234985</v>
       </c>
       <c r="H708" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -26822,7 +24540,7 @@
         <v>1756996.922634985</v>
       </c>
       <c r="H709" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -26855,7 +24573,7 @@
         <v>1756996.922634985</v>
       </c>
       <c r="H710" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -26888,7 +24606,7 @@
         <v>1753032.117034985</v>
       </c>
       <c r="H711" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -26954,7 +24672,7 @@
         <v>1759058.875434984</v>
       </c>
       <c r="H713" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -26987,7 +24705,7 @@
         <v>1759058.875434984</v>
       </c>
       <c r="H714" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -27449,7 +25167,7 @@
         <v>1744959.406434984</v>
       </c>
       <c r="H728" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -27482,7 +25200,7 @@
         <v>1739334.302234984</v>
       </c>
       <c r="H729" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -27493,6 +25211,6 @@
       <c r="M729" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-20 BackTest CTXC.xlsx
+++ b/BackTest/2019-11-20 BackTest CTXC.xlsx
@@ -521,9 +521,11 @@
         <v>-9726.759900000008</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>188</v>
+      </c>
       <c r="J4" t="n">
         <v>188</v>
       </c>
@@ -601,9 +603,11 @@
         <v>-4074.270200000008</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>187</v>
+      </c>
       <c r="J6" t="n">
         <v>188</v>
       </c>
@@ -757,9 +761,11 @@
         <v>-5805.730700000008</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>186</v>
+      </c>
       <c r="J10" t="n">
         <v>188</v>
       </c>
@@ -796,9 +802,11 @@
         <v>-5805.730700000008</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>188</v>
+      </c>
       <c r="J11" t="n">
         <v>188</v>
       </c>
@@ -835,9 +843,11 @@
         <v>-8117.151100000008</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>188</v>
+      </c>
       <c r="J12" t="n">
         <v>188</v>
       </c>
@@ -874,9 +884,11 @@
         <v>-8117.151100000008</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>185</v>
+      </c>
       <c r="J13" t="n">
         <v>188</v>
       </c>
@@ -913,9 +925,11 @@
         <v>-8366.922700000008</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>185</v>
+      </c>
       <c r="J14" t="n">
         <v>188</v>
       </c>
@@ -1649,9 +1663,11 @@
         <v>12142.59409999999</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>187</v>
+      </c>
       <c r="J32" t="n">
         <v>188</v>
       </c>
@@ -1688,9 +1704,11 @@
         <v>11592.99959999999</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>187</v>
+      </c>
       <c r="J33" t="n">
         <v>188</v>
       </c>
@@ -1727,9 +1745,11 @@
         <v>33264.198</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>184</v>
+      </c>
       <c r="J34" t="n">
         <v>188</v>
       </c>
@@ -1889,9 +1909,11 @@
         <v>42999.28875736842</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>187</v>
+      </c>
       <c r="J38" t="n">
         <v>188</v>
       </c>
@@ -1928,9 +1950,11 @@
         <v>42999.28875736842</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>187</v>
+      </c>
       <c r="J39" t="n">
         <v>188</v>
       </c>
@@ -1967,9 +1991,11 @@
         <v>42999.28875736842</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>187</v>
+      </c>
       <c r="J40" t="n">
         <v>188</v>
       </c>
@@ -2006,9 +2032,11 @@
         <v>42999.28875736842</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>187</v>
+      </c>
       <c r="J41" t="n">
         <v>188</v>
       </c>
@@ -2045,9 +2073,11 @@
         <v>42999.28875736842</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>187</v>
+      </c>
       <c r="J42" t="n">
         <v>188</v>
       </c>
@@ -2084,9 +2114,11 @@
         <v>42999.28875736842</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>187</v>
+      </c>
       <c r="J43" t="n">
         <v>188</v>
       </c>
@@ -2123,9 +2155,11 @@
         <v>44151.94625736842</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>187</v>
+      </c>
       <c r="J44" t="n">
         <v>188</v>
       </c>
@@ -2162,9 +2196,11 @@
         <v>42861.90195736842</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>188</v>
+      </c>
       <c r="J45" t="n">
         <v>188</v>
       </c>
@@ -2201,9 +2237,11 @@
         <v>46708.66395736842</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>187</v>
+      </c>
       <c r="J46" t="n">
         <v>188</v>
       </c>
@@ -2322,11 +2360,9 @@
         <v>71738.31035736842</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>189</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
         <v>188</v>
       </c>
@@ -4235,11 +4271,9 @@
         <v>33517.44975736841</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>191</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
         <v>188</v>
       </c>
@@ -4276,11 +4310,9 @@
         <v>33517.44975736841</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>190</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
         <v>188</v>
       </c>
@@ -4317,11 +4349,9 @@
         <v>33517.44975736841</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>190</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
         <v>188</v>
       </c>
@@ -4358,11 +4388,9 @@
         <v>34643.44975736841</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>190</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
         <v>188</v>
       </c>
@@ -4399,11 +4427,9 @@
         <v>42435.44475736841</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>191</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
         <v>188</v>
       </c>
@@ -4440,11 +4466,9 @@
         <v>42435.44475736841</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>192</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
         <v>188</v>
       </c>
@@ -4481,11 +4505,9 @@
         <v>55571.79815736841</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>192</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
         <v>188</v>
       </c>
@@ -5029,7 +5051,7 @@
         <v>288610.7496822081</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
@@ -5037,15 +5059,13 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L118" t="n">
-        <v>1.064148936170213</v>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5070,11 +5090,17 @@
         <v>343322.887982208</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>188</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5103,11 +5129,17 @@
         <v>309788.2388822081</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>188</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5136,11 +5168,17 @@
         <v>331969.2743822081</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>188</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5169,11 +5207,17 @@
         <v>375443.7981822081</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>188</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5202,11 +5246,17 @@
         <v>324310.7299822081</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>188</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5235,11 +5285,17 @@
         <v>334602.9186822081</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>188</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5268,11 +5324,17 @@
         <v>343419.0348822081</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>188</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5301,11 +5363,17 @@
         <v>467118.1247822081</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>188</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5334,11 +5402,17 @@
         <v>444930.2898822081</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>188</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5367,11 +5441,17 @@
         <v>436895.9103822081</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>188</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5400,11 +5480,17 @@
         <v>501338.7900822081</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>188</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5433,11 +5519,17 @@
         <v>521512.8676822081</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>188</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5466,11 +5558,17 @@
         <v>498539.7431822082</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>188</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5499,11 +5597,17 @@
         <v>545302.4242569654</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>188</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5532,11 +5636,17 @@
         <v>588765.2519182994</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>188</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5565,11 +5675,17 @@
         <v>540528.5260182994</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>188</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5598,11 +5714,17 @@
         <v>540528.5260182994</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>188</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5631,11 +5753,17 @@
         <v>481020.8324182994</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>188</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5664,11 +5792,17 @@
         <v>452051.1913182994</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>188</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5697,11 +5831,17 @@
         <v>456754.7283182994</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>188</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5730,11 +5870,17 @@
         <v>456754.7283182994</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>188</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5763,11 +5909,17 @@
         <v>412494.9358182994</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>188</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5796,11 +5948,17 @@
         <v>412494.9358182994</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>188</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5829,11 +5987,17 @@
         <v>426851.3410182994</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>188</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5862,11 +6026,17 @@
         <v>428083.4982182994</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>188</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5895,11 +6065,17 @@
         <v>442872.4982182994</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>188</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5928,11 +6104,17 @@
         <v>442872.4982182994</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>188</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5961,11 +6143,17 @@
         <v>442872.4982182994</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>188</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5994,11 +6182,17 @@
         <v>442872.4982182994</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>188</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6027,11 +6221,17 @@
         <v>442872.4982182994</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>188</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6060,11 +6260,17 @@
         <v>429084.1428182994</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>188</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6093,11 +6299,17 @@
         <v>434156.8067182994</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>188</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6126,11 +6338,17 @@
         <v>422030.1585182994</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>188</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6159,11 +6377,17 @@
         <v>430065.3969182994</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>188</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6192,11 +6416,17 @@
         <v>427550.4847182994</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>188</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6225,11 +6455,17 @@
         <v>427550.4847182994</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>188</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6258,11 +6494,17 @@
         <v>427550.4847182994</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>188</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6291,11 +6533,17 @@
         <v>472461.3262182993</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>188</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6324,11 +6572,17 @@
         <v>462848.9425182993</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>188</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6357,11 +6611,17 @@
         <v>459848.9425182993</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>188</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6390,11 +6650,17 @@
         <v>459848.9425182993</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>188</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6423,11 +6689,17 @@
         <v>469490.9545182993</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>188</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6456,11 +6728,17 @@
         <v>472198.3171182993</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>188</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6489,11 +6767,17 @@
         <v>472198.3171182993</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>188</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6522,11 +6806,17 @@
         <v>472198.3171182993</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>188</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6555,11 +6845,17 @@
         <v>486154.3905182993</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>188</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6588,11 +6884,17 @@
         <v>486154.3905182993</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>188</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6621,11 +6923,17 @@
         <v>486154.3905182993</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>188</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6654,11 +6962,17 @@
         <v>486154.3905182993</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>188</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6687,11 +7001,17 @@
         <v>535364.8098182993</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>188</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6720,11 +7040,17 @@
         <v>547067.1042182993</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>188</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6753,11 +7079,17 @@
         <v>526161.7955182992</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>188</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6786,11 +7118,17 @@
         <v>475565.7933182992</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>188</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6819,11 +7157,17 @@
         <v>484474.5570182992</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>188</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6852,11 +7196,17 @@
         <v>445336.3354182992</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>188</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6885,11 +7235,17 @@
         <v>464522.6790182993</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>188</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6918,11 +7274,17 @@
         <v>451779.1226182993</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>188</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6951,11 +7313,17 @@
         <v>436555.0203182992</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>188</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6984,11 +7352,17 @@
         <v>437892.9513182992</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>188</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7020,8 +7394,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>188</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7053,8 +7433,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>188</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7086,8 +7472,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>188</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7119,8 +7511,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>188</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7152,8 +7550,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>188</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7185,8 +7589,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>188</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7218,8 +7628,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>188</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7251,8 +7667,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>188</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7281,11 +7703,17 @@
         <v>443686.4542182992</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>188</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7314,11 +7742,17 @@
         <v>443686.4542182992</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>188</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7347,11 +7781,17 @@
         <v>443686.4542182992</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>188</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7380,11 +7820,17 @@
         <v>443686.4542182992</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>188</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7413,11 +7859,17 @@
         <v>441940.4602182992</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>188</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7446,11 +7898,17 @@
         <v>430608.9659182992</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>188</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7479,11 +7937,17 @@
         <v>410553.8512182992</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>188</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7512,11 +7976,17 @@
         <v>410733.5963163385</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>188</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7545,11 +8015,17 @@
         <v>410478.7215163385</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>188</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7578,11 +8054,17 @@
         <v>410478.7215163385</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>188</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7611,11 +8093,17 @@
         <v>410478.7215163385</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>188</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7644,11 +8132,17 @@
         <v>411114.7432163385</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>188</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7677,11 +8171,17 @@
         <v>411114.7432163385</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>188</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7710,11 +8210,17 @@
         <v>411114.7432163385</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>188</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7743,11 +8249,17 @@
         <v>411064.7432163385</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>188</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7776,11 +8288,17 @@
         <v>411064.7432163385</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>188</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7809,11 +8327,17 @@
         <v>415780.1550163385</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>188</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7842,11 +8366,17 @@
         <v>416251.1856163385</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>188</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7875,11 +8405,17 @@
         <v>407778.3025163385</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>188</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7908,11 +8444,17 @@
         <v>415530.7981163385</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>188</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7941,11 +8483,17 @@
         <v>415530.7981163385</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>188</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7974,11 +8522,17 @@
         <v>415530.7981163385</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>188</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8007,11 +8561,17 @@
         <v>415530.7981163385</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>188</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8040,11 +8600,17 @@
         <v>415530.7981163385</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>188</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8073,11 +8639,17 @@
         <v>415405.7981163385</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>188</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8106,11 +8678,17 @@
         <v>426797.5026163385</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>188</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8139,11 +8717,17 @@
         <v>426797.5026163385</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>188</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8172,11 +8756,17 @@
         <v>416797.5026163385</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>188</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8205,11 +8795,17 @@
         <v>449969.3689163385</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>188</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8238,11 +8834,17 @@
         <v>449969.3689163385</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>188</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8271,11 +8873,17 @@
         <v>449969.3689163385</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>188</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8304,11 +8912,17 @@
         <v>449969.3689163385</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>188</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8340,8 +8954,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>188</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8370,11 +8990,17 @@
         <v>449969.3689163385</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>188</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8403,11 +9029,17 @@
         <v>449969.3689163385</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>188</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8436,11 +9068,17 @@
         <v>447856.4952163385</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>188</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8469,11 +9107,17 @@
         <v>447856.4952163385</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>188</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8502,11 +9146,17 @@
         <v>392617.1682163385</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>188</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8535,11 +9185,17 @@
         <v>382617.1682163385</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>188</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8571,8 +9227,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>188</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8604,8 +9266,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>188</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8634,11 +9302,17 @@
         <v>410792.7301163385</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>188</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8667,11 +9341,17 @@
         <v>415947.5678848114</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>188</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8700,11 +9380,17 @@
         <v>415947.5678848114</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>188</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8733,11 +9419,17 @@
         <v>299181.0783848114</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>188</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8766,11 +9458,17 @@
         <v>267261.3003848114</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>188</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8802,8 +9500,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>188</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8835,8 +9539,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>188</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8868,8 +9578,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>188</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8901,8 +9617,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>188</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8934,8 +9656,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>188</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8967,8 +9695,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>188</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9000,8 +9734,14 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>188</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9033,8 +9773,14 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>188</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9066,8 +9812,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>188</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9099,8 +9851,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>188</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9132,8 +9890,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>188</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9165,8 +9929,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>188</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9198,8 +9968,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>188</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9228,11 +10004,17 @@
         <v>264618.5893848115</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>188</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9264,8 +10046,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>188</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9297,8 +10085,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>188</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9330,8 +10124,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>188</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9363,8 +10163,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>188</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9396,8 +10202,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>188</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9429,8 +10241,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>188</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9462,8 +10280,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>188</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9495,8 +10319,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>188</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9528,8 +10358,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>188</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9561,8 +10397,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>188</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9594,8 +10436,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>188</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9627,8 +10475,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>188</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9660,8 +10514,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>188</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9693,8 +10553,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>188</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9726,8 +10592,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>188</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9759,8 +10631,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>188</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9792,8 +10670,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>188</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9825,8 +10709,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>188</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9858,8 +10748,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>188</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9891,8 +10787,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>188</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9924,8 +10826,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>188</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9957,8 +10865,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>188</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9990,8 +10904,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>188</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10023,8 +10943,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>188</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10056,8 +10982,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>188</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10089,8 +11021,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>188</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10122,8 +11060,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>188</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10155,8 +11099,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>188</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10188,8 +11138,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>188</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10221,8 +11177,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>188</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10254,8 +11216,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>188</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10287,8 +11255,14 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>188</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10320,8 +11294,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>188</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10353,8 +11333,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>188</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10386,8 +11372,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>188</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10419,8 +11411,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>188</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10452,8 +11450,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>188</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10485,8 +11489,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>188</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10518,8 +11528,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>188</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10551,8 +11567,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>188</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10584,8 +11606,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>188</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10617,8 +11645,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>188</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10650,8 +11684,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>188</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10683,8 +11723,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>188</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10716,8 +11762,14 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>188</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10749,8 +11801,14 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>188</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10782,8 +11840,14 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>188</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10815,8 +11879,14 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>188</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10848,8 +11918,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>188</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10881,8 +11957,14 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>188</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10914,8 +11996,14 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>188</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10947,8 +12035,14 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>188</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10980,8 +12074,14 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>188</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11013,8 +12113,14 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>188</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11046,8 +12152,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>188</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11079,8 +12191,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>188</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11112,8 +12230,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>188</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11145,8 +12269,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>188</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11178,8 +12308,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>188</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11211,8 +12347,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>188</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11244,8 +12386,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>188</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11277,8 +12425,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>188</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11310,8 +12464,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>188</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11343,8 +12503,14 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>188</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11376,8 +12542,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>188</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11409,8 +12581,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>188</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11442,8 +12620,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>188</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11475,8 +12659,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>188</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11508,8 +12698,14 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>188</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11541,8 +12737,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>188</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11574,8 +12776,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>188</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11607,8 +12815,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>188</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11640,8 +12854,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>188</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11673,8 +12893,14 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>188</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11706,8 +12932,14 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>188</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11739,8 +12971,14 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>188</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11772,8 +13010,14 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>188</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11805,8 +13049,14 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>188</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11838,8 +13088,14 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>188</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11871,8 +13127,14 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>188</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11904,8 +13166,14 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>188</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11937,8 +13205,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>188</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11970,8 +13244,14 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>188</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12003,8 +13283,14 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>188</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12036,8 +13322,14 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>188</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12069,8 +13361,14 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>188</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12102,8 +13400,14 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>188</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12135,8 +13439,14 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>188</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12168,8 +13478,14 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>188</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12201,8 +13517,14 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>188</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12234,8 +13556,14 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>188</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12267,8 +13595,14 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>188</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12300,8 +13634,14 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>188</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12333,8 +13673,14 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>188</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12366,8 +13712,14 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>188</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12399,8 +13751,14 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>188</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12432,8 +13790,14 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>188</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12465,8 +13829,14 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>188</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12498,8 +13868,14 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>188</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12531,8 +13907,14 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>188</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12564,8 +13946,14 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>188</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12597,8 +13985,14 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>188</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12630,8 +14024,14 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>188</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12663,8 +14063,14 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>188</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12696,8 +14102,14 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>188</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12729,8 +14141,14 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>188</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12759,11 +14177,17 @@
         <v>319601.2589590691</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>188</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12795,8 +14219,14 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>188</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12825,11 +14255,17 @@
         <v>321279.0422590691</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>188</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12858,11 +14294,17 @@
         <v>313879.2260590691</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>188</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12891,11 +14333,17 @@
         <v>313879.2260590691</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>188</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12924,11 +14372,17 @@
         <v>306301.3759590691</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>188</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12957,11 +14411,17 @@
         <v>307604.2880590691</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>188</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12990,11 +14450,17 @@
         <v>307604.2880590691</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>188</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13023,11 +14489,17 @@
         <v>312580.5213590692</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>188</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13056,11 +14528,17 @@
         <v>312580.5213590692</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>188</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13089,11 +14567,17 @@
         <v>312580.5213590692</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>188</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13122,11 +14606,17 @@
         <v>312580.5213590692</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>188</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13155,11 +14645,17 @@
         <v>312575.4770590691</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>188</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13188,11 +14684,17 @@
         <v>318286.9274590691</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>188</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13221,11 +14723,17 @@
         <v>318101.9274590691</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>188</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13254,11 +14762,17 @@
         <v>319287.7731590691</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>188</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13287,11 +14801,17 @@
         <v>319287.7731590691</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>188</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13320,11 +14840,17 @@
         <v>336353.3865590691</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>188</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13353,11 +14879,17 @@
         <v>335553.3865590691</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>188</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13386,11 +14918,17 @@
         <v>324158.1400590691</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>188</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13419,11 +14957,17 @@
         <v>324158.1400590691</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>188</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13452,11 +14996,17 @@
         <v>324158.1400590691</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>188</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13485,11 +15035,17 @@
         <v>324651.9551590691</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>188</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13518,11 +15074,17 @@
         <v>313419.0116590691</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>188</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13551,11 +15113,17 @@
         <v>338935.4606590691</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>188</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13584,11 +15152,17 @@
         <v>338935.4606590691</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>188</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13617,11 +15191,17 @@
         <v>360322.6435590691</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>188</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13650,11 +15230,17 @@
         <v>359314.9324590691</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>188</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13683,11 +15269,17 @@
         <v>359314.9324590691</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>188</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13716,11 +15308,17 @@
         <v>368826.9633590691</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>188</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13749,11 +15347,17 @@
         <v>368514.3313590692</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>188</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13782,11 +15386,17 @@
         <v>370070.7684590691</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>188</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13815,11 +15425,17 @@
         <v>369070.1599590692</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>188</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13848,11 +15464,17 @@
         <v>369070.1599590692</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>188</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13881,11 +15503,17 @@
         <v>396449.4066590692</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>188</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13914,11 +15542,17 @@
         <v>398416.8674590692</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>188</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13947,11 +15581,17 @@
         <v>398211.7464590692</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>188</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13980,11 +15620,17 @@
         <v>401740.1686590692</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>188</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14013,11 +15659,17 @@
         <v>401740.1686590692</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>188</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14046,11 +15698,17 @@
         <v>401740.1686590692</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>188</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14079,11 +15737,17 @@
         <v>401740.1686590692</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>188</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14112,11 +15776,17 @@
         <v>393599.8929590692</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>188</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14145,11 +15815,17 @@
         <v>393624.8929590692</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>188</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14178,11 +15854,17 @@
         <v>393624.8929590692</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>188</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14211,11 +15893,17 @@
         <v>393140.9949590692</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>188</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14244,11 +15932,17 @@
         <v>394240.0248708339</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>188</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14277,11 +15971,17 @@
         <v>393754.0248708339</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>188</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14310,11 +16010,17 @@
         <v>393754.0248708339</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>188</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14343,11 +16049,17 @@
         <v>397348.6045708339</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>188</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14376,11 +16088,17 @@
         <v>397348.6045708339</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>188</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14409,11 +16127,17 @@
         <v>405441.9916708339</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>188</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14442,11 +16166,17 @@
         <v>405441.9916708339</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>188</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14475,11 +16205,17 @@
         <v>425304.9995590692</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>188</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14508,11 +16244,17 @@
         <v>432410.2828590692</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>188</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14541,11 +16283,17 @@
         <v>432410.2828590692</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>188</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14574,11 +16322,17 @@
         <v>432410.2828590692</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>188</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14607,11 +16361,17 @@
         <v>448772.4168590692</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>188</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14640,11 +16400,17 @@
         <v>448772.4168590692</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>188</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14673,11 +16439,17 @@
         <v>433809.3584209739</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>188</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14706,11 +16478,17 @@
         <v>409450.4626209739</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>188</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14742,8 +16520,14 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>188</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14772,11 +16556,17 @@
         <v>424628.4760209739</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>188</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14805,11 +16595,17 @@
         <v>424628.4760209739</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>188</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14838,11 +16634,17 @@
         <v>738917.4793543073</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>188</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14874,8 +16676,14 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>188</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14907,8 +16715,14 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>188</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14940,8 +16754,14 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>188</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14973,8 +16793,14 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>188</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15006,8 +16832,14 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>188</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15039,8 +16871,14 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>188</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15072,8 +16910,14 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>188</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15105,8 +16949,14 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>188</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15138,8 +16988,14 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>188</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15171,8 +17027,14 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>188</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15204,8 +17066,14 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>188</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15237,8 +17105,14 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>188</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15270,8 +17144,14 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>188</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15303,8 +17183,14 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>188</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15336,8 +17222,14 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>188</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15369,8 +17261,14 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>188</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15402,8 +17300,14 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>188</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15435,8 +17339,14 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>188</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15468,8 +17378,14 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>188</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15501,8 +17417,14 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>188</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15534,8 +17456,14 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>188</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15567,8 +17495,14 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>188</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15600,8 +17534,14 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>188</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15633,8 +17573,14 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>188</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15666,8 +17612,14 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>188</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15699,8 +17651,14 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>188</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15732,8 +17690,14 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>188</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15765,8 +17729,14 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>188</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15798,8 +17768,14 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>188</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15831,8 +17807,14 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>188</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15864,8 +17846,14 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>188</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15894,11 +17882,17 @@
         <v>1625204.098588593</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>188</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15927,11 +17921,17 @@
         <v>1625204.098588593</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>188</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15960,11 +17960,17 @@
         <v>1641874.223288593</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>188</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15993,11 +17999,17 @@
         <v>1641874.223288593</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>188</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -16026,11 +18038,17 @@
         <v>1661478.273488593</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>188</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -16062,8 +18080,14 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>188</v>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -16095,8 +18119,14 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>188</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16125,11 +18155,17 @@
         <v>1652143.302988593</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>188</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -16158,11 +18194,17 @@
         <v>1675294.074788593</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>188</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16191,11 +18233,17 @@
         <v>1636654.828988593</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>188</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16224,11 +18272,17 @@
         <v>1648189.098988593</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>188</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16260,8 +18314,14 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>188</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16293,8 +18353,14 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>188</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16326,8 +18392,14 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>188</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16359,8 +18431,14 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>188</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16392,8 +18470,14 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>188</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16425,8 +18509,14 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>188</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16458,8 +18548,14 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>188</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16491,8 +18587,14 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>188</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16524,8 +18626,14 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>188</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16557,8 +18665,14 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>188</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16590,8 +18704,14 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>188</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16623,8 +18743,14 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>188</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16656,8 +18782,14 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>188</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16689,8 +18821,14 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>188</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16722,8 +18860,14 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>188</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16755,8 +18899,14 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>188</v>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16788,8 +18938,14 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>188</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16821,8 +18977,14 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>188</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16854,8 +19016,14 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>188</v>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16887,8 +19055,14 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>188</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16920,8 +19094,14 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>188</v>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16953,8 +19133,14 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>188</v>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16986,8 +19172,14 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>188</v>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -17019,8 +19211,14 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>188</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -17052,8 +19250,14 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>188</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -17085,8 +19289,14 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>188</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -17118,8 +19328,14 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>188</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -17151,8 +19367,14 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>188</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17184,8 +19406,14 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>188</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17217,8 +19445,14 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>188</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17250,8 +19484,14 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>188</v>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17283,8 +19523,14 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>188</v>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17316,8 +19562,14 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>188</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17349,8 +19601,14 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>188</v>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17382,8 +19640,14 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>188</v>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17415,8 +19679,14 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>188</v>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17448,8 +19718,14 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>188</v>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17481,8 +19757,14 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>188</v>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17514,8 +19796,14 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>188</v>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17547,8 +19835,14 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>188</v>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17580,8 +19874,14 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>188</v>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17613,8 +19913,14 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>188</v>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17646,8 +19952,14 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>188</v>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17679,8 +19991,14 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>188</v>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17712,8 +20030,14 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>188</v>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17745,8 +20069,14 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>188</v>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17778,8 +20108,14 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>188</v>
+      </c>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17811,8 +20147,14 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>188</v>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17844,8 +20186,14 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>188</v>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17877,8 +20225,14 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>188</v>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17910,8 +20264,14 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>188</v>
+      </c>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17943,8 +20303,14 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>188</v>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17976,8 +20342,14 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>188</v>
+      </c>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -18009,8 +20381,14 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>188</v>
+      </c>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -18042,8 +20420,14 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>188</v>
+      </c>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -18075,8 +20459,14 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>188</v>
+      </c>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -18108,8 +20498,14 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>188</v>
+      </c>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -18141,8 +20537,14 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="J515" t="n">
+        <v>188</v>
+      </c>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -18174,8 +20576,14 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>188</v>
+      </c>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -18207,8 +20615,14 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="J517" t="n">
+        <v>188</v>
+      </c>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -18240,8 +20654,14 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>188</v>
+      </c>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -18273,8 +20693,14 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="J519" t="n">
+        <v>188</v>
+      </c>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -18306,8 +20732,14 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="J520" t="n">
+        <v>188</v>
+      </c>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -18339,8 +20771,14 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="J521" t="n">
+        <v>188</v>
+      </c>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -18372,8 +20810,14 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="J522" t="n">
+        <v>188</v>
+      </c>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -18405,8 +20849,14 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="J523" t="n">
+        <v>188</v>
+      </c>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -18438,8 +20888,14 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="J524" t="n">
+        <v>188</v>
+      </c>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -18471,8 +20927,14 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="J525" t="n">
+        <v>188</v>
+      </c>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -18504,8 +20966,14 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="J526" t="n">
+        <v>188</v>
+      </c>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -18537,8 +21005,14 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="J527" t="n">
+        <v>188</v>
+      </c>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18570,8 +21044,14 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="J528" t="n">
+        <v>188</v>
+      </c>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -18603,8 +21083,14 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="J529" t="n">
+        <v>188</v>
+      </c>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -18636,8 +21122,14 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="J530" t="n">
+        <v>188</v>
+      </c>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -18669,8 +21161,14 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>188</v>
+      </c>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18702,8 +21200,14 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="J532" t="n">
+        <v>188</v>
+      </c>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18735,8 +21239,14 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="J533" t="n">
+        <v>188</v>
+      </c>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18768,8 +21278,14 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="J534" t="n">
+        <v>188</v>
+      </c>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18801,8 +21317,14 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="J535" t="n">
+        <v>188</v>
+      </c>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18834,8 +21356,14 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="J536" t="n">
+        <v>188</v>
+      </c>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18867,8 +21395,14 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="J537" t="n">
+        <v>188</v>
+      </c>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18900,8 +21434,14 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="J538" t="n">
+        <v>188</v>
+      </c>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18933,8 +21473,14 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="J539" t="n">
+        <v>188</v>
+      </c>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18966,8 +21512,14 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="J540" t="n">
+        <v>188</v>
+      </c>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18999,8 +21551,14 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="J541" t="n">
+        <v>188</v>
+      </c>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -19032,8 +21590,14 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="J542" t="n">
+        <v>188</v>
+      </c>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -19065,8 +21629,14 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="J543" t="n">
+        <v>188</v>
+      </c>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -19098,8 +21668,14 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="J544" t="n">
+        <v>188</v>
+      </c>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -19131,8 +21707,14 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="J545" t="n">
+        <v>188</v>
+      </c>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -19164,8 +21746,14 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="J546" t="n">
+        <v>188</v>
+      </c>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -19197,8 +21785,14 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="J547" t="n">
+        <v>188</v>
+      </c>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -19230,8 +21824,14 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="J548" t="n">
+        <v>188</v>
+      </c>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -19263,8 +21863,14 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="J549" t="n">
+        <v>188</v>
+      </c>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -19296,8 +21902,14 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="J550" t="n">
+        <v>188</v>
+      </c>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -19329,8 +21941,14 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="J551" t="n">
+        <v>188</v>
+      </c>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -19362,8 +21980,14 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="J552" t="n">
+        <v>188</v>
+      </c>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -19395,8 +22019,14 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="J553" t="n">
+        <v>188</v>
+      </c>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -19428,8 +22058,14 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="J554" t="n">
+        <v>188</v>
+      </c>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -19461,8 +22097,14 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="J555" t="n">
+        <v>188</v>
+      </c>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -19494,8 +22136,14 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="J556" t="n">
+        <v>188</v>
+      </c>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -19527,8 +22175,14 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="J557" t="n">
+        <v>188</v>
+      </c>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -19560,8 +22214,14 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="J558" t="n">
+        <v>188</v>
+      </c>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -19593,8 +22253,14 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="J559" t="n">
+        <v>188</v>
+      </c>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -19626,8 +22292,14 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="J560" t="n">
+        <v>188</v>
+      </c>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -19659,8 +22331,14 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="J561" t="n">
+        <v>188</v>
+      </c>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -19692,8 +22370,14 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="J562" t="n">
+        <v>188</v>
+      </c>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -19725,8 +22409,14 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="J563" t="n">
+        <v>188</v>
+      </c>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19758,8 +22448,14 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="J564" t="n">
+        <v>188</v>
+      </c>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19791,8 +22487,14 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="J565" t="n">
+        <v>188</v>
+      </c>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19824,8 +22526,14 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="J566" t="n">
+        <v>188</v>
+      </c>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19854,15 +22562,23 @@
         <v>1717883.116468079</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="J567" t="n">
+        <v>188</v>
+      </c>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L567" t="n">
-        <v>1</v>
-      </c>
-      <c r="M567" t="inlineStr"/>
+        <v>1.165212765957447</v>
+      </c>
+      <c r="M567" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
@@ -19887,7 +22603,7 @@
         <v>1867067.018668079</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -19920,7 +22636,7 @@
         <v>1892992.728268079</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -19953,7 +22669,7 @@
         <v>1868648.414168079</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -19986,7 +22702,7 @@
         <v>2057709.459216555</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -20019,7 +22735,7 @@
         <v>1940887.202549888</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -20052,7 +22768,7 @@
         <v>1970491.057649888</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -20085,7 +22801,7 @@
         <v>1938344.784549888</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -20118,7 +22834,7 @@
         <v>1933973.814649888</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -20151,7 +22867,7 @@
         <v>1933973.814649888</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -20184,7 +22900,7 @@
         <v>1933973.814649888</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -20217,7 +22933,7 @@
         <v>1933973.814649888</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -20250,7 +22966,7 @@
         <v>1973046.442649888</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -20283,7 +22999,7 @@
         <v>1973046.442649888</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -20316,7 +23032,7 @@
         <v>1940776.327349888</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -20349,7 +23065,7 @@
         <v>1857551.705549888</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -20382,7 +23098,7 @@
         <v>1839750.334349888</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -20415,7 +23131,7 @@
         <v>1839750.334349888</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -20448,7 +23164,7 @@
         <v>1823064.489649888</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -20481,7 +23197,7 @@
         <v>1834731.349249888</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -20514,7 +23230,7 @@
         <v>1834731.349249888</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -20547,7 +23263,7 @@
         <v>1823375.519649888</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -20580,7 +23296,7 @@
         <v>1792855.964049888</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -20613,7 +23329,7 @@
         <v>1792855.964049888</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -20646,7 +23362,7 @@
         <v>1808980.229949888</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -20679,7 +23395,7 @@
         <v>1816214.455749888</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -20712,7 +23428,7 @@
         <v>1816214.455749888</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -20745,7 +23461,7 @@
         <v>1809274.381049888</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -20778,7 +23494,7 @@
         <v>1804112.939049888</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -20811,7 +23527,7 @@
         <v>1862001.884449888</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -20844,7 +23560,7 @@
         <v>1862001.884449888</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -20877,7 +23593,7 @@
         <v>1862001.884449888</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -20910,7 +23626,7 @@
         <v>1862001.884449888</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -20943,7 +23659,7 @@
         <v>1879634.653549888</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -20976,7 +23692,7 @@
         <v>1896227.074149888</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -21009,7 +23725,7 @@
         <v>1896227.074149888</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -21042,7 +23758,7 @@
         <v>1902604.784349888</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -21075,7 +23791,7 @@
         <v>1902604.784349888</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -21108,7 +23824,7 @@
         <v>1902604.784349888</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -21141,7 +23857,7 @@
         <v>1953125.929449888</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -21174,7 +23890,7 @@
         <v>1953125.929449888</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -21207,7 +23923,7 @@
         <v>1900968.064107546</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -21240,7 +23956,7 @@
         <v>1889485.027407546</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -21273,7 +23989,7 @@
         <v>1890550.951007546</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -21306,7 +24022,7 @@
         <v>1855831.664707546</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -21339,7 +24055,7 @@
         <v>1855831.664707546</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -21372,7 +24088,7 @@
         <v>1855835.664707546</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -21405,7 +24121,7 @@
         <v>1871422.395407546</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -21438,7 +24154,7 @@
         <v>1871422.395407546</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -21471,7 +24187,7 @@
         <v>1871422.395407546</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -21504,7 +24220,7 @@
         <v>1879228.105707546</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -21537,7 +24253,7 @@
         <v>1879228.105707546</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -21570,7 +24286,7 @@
         <v>1989713.447707546</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -21603,7 +24319,7 @@
         <v>2106177.635553392</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -21636,7 +24352,7 @@
         <v>2092196.613953392</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -21669,7 +24385,7 @@
         <v>2148111.344653392</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -21702,7 +24418,7 @@
         <v>2148111.344653392</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -21735,7 +24451,7 @@
         <v>2116693.170310661</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -21768,7 +24484,7 @@
         <v>2113443.545610661</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -21801,7 +24517,7 @@
         <v>2035441.516610661</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -21834,7 +24550,7 @@
         <v>2057365.064410661</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -21867,7 +24583,7 @@
         <v>2057365.064410661</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -21900,7 +24616,7 @@
         <v>2057365.064410661</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -21933,7 +24649,7 @@
         <v>2057365.064410661</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -21966,7 +24682,7 @@
         <v>2057365.064410661</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -21999,7 +24715,7 @@
         <v>2057365.064410661</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -22032,7 +24748,7 @@
         <v>2032946.081010661</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -22065,7 +24781,7 @@
         <v>2032946.081010661</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -22098,7 +24814,7 @@
         <v>2037853.601210661</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -22131,7 +24847,7 @@
         <v>2037648.065810661</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -22164,7 +24880,7 @@
         <v>2023305.656510661</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -22197,7 +24913,7 @@
         <v>2023305.656510661</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -22230,7 +24946,7 @@
         <v>2015203.275910661</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -22263,7 +24979,7 @@
         <v>2033851.643410661</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -22296,7 +25012,7 @@
         <v>2033851.643410661</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -22329,7 +25045,7 @@
         <v>2033484.15511066</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -22362,7 +25078,7 @@
         <v>2033484.15511066</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -22395,7 +25111,7 @@
         <v>2030764.19341066</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -22428,7 +25144,7 @@
         <v>2030779.18171066</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -22461,7 +25177,7 @@
         <v>2030779.18171066</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -22494,7 +25210,7 @@
         <v>1996345.49461066</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -22527,7 +25243,7 @@
         <v>1982081.180410661</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -22560,7 +25276,7 @@
         <v>1982081.180410661</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -22593,7 +25309,7 @@
         <v>1931309.739710661</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -22626,7 +25342,7 @@
         <v>1839771.523210661</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -22659,7 +25375,7 @@
         <v>1849087.194210661</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -22692,7 +25408,7 @@
         <v>1860163.154010661</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -22725,7 +25441,7 @@
         <v>1860147.554010661</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -22758,7 +25474,7 @@
         <v>1872125.296610661</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -22791,7 +25507,7 @@
         <v>1872125.296610661</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -22824,7 +25540,7 @@
         <v>1869949.091310661</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -22857,7 +25573,7 @@
         <v>1861989.961410661</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -22890,7 +25606,7 @@
         <v>1861989.961410661</v>
       </c>
       <c r="H659" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -22923,7 +25639,7 @@
         <v>1868744.49901066</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -22956,7 +25672,7 @@
         <v>1867162.86311066</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -23154,7 +25870,7 @@
         <v>1899069.61771066</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -23187,7 +25903,7 @@
         <v>1892092.16591066</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -23418,7 +26134,7 @@
         <v>1934991.40051066</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -23451,7 +26167,7 @@
         <v>1934584.67831066</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -23484,7 +26200,7 @@
         <v>1938471.31881066</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -23550,7 +26266,7 @@
         <v>1945590.785334985</v>
       </c>
       <c r="H679" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -23583,7 +26299,7 @@
         <v>1934430.126734985</v>
       </c>
       <c r="H680" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -23616,7 +26332,7 @@
         <v>1942881.413334985</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -23649,7 +26365,7 @@
         <v>1942881.413334985</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -23682,7 +26398,7 @@
         <v>1887837.202234985</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -23715,7 +26431,7 @@
         <v>1887837.202234985</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -23748,7 +26464,7 @@
         <v>1887737.202234985</v>
       </c>
       <c r="H685" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
